--- a/public/dat/B. TECH. IV SEM JUNE 2021(COVID 19).xlsx
+++ b/public/dat/B. TECH. IV SEM JUNE 2021(COVID 19).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sakshi\Study\website\Academic\public\dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="1956" windowWidth="11520" windowHeight="7872" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1887,9 +1892,6 @@
     <t>Sohan Lal</t>
   </si>
   <si>
-    <t>Rajat  Bisht</t>
-  </si>
-  <si>
     <t>Vinod Bisht</t>
   </si>
   <si>
@@ -2266,16 +2268,19 @@
   </si>
   <si>
     <t>Electrical             Machine-II                                 TEE 242</t>
+  </si>
+  <si>
+    <t>Rajat Bisht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3206,6 +3211,24 @@
     <xf numFmtId="1" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3236,28 +3259,25 @@
     <xf numFmtId="1" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3269,23 +3289,14 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3293,10 +3304,7 @@
     <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3304,9 +3312,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3767,7 +3772,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A5628B6-9FF3-434E-8D78-649AABF87778}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5628B6-9FF3-434E-8D78-649AABF87778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3827,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18E521F6-54F3-4E87-858F-A65519A8CF6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E521F6-54F3-4E87-858F-A65519A8CF6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,7 +3882,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0469FEF4-5E20-45DA-A5DE-6A85BAAF54B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0469FEF4-5E20-45DA-A5DE-6A85BAAF54B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3937,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0CF42A5-E815-46FE-802F-572075E6CEE0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CF42A5-E815-46FE-802F-572075E6CEE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,7 +3997,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3FE702D-FC9A-4B93-B2D7-BB80E749078D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FE702D-FC9A-4B93-B2D7-BB80E749078D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4052,7 +4057,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D9ACF6B-722E-472E-8FDC-9D32494E5EB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9ACF6B-722E-472E-8FDC-9D32494E5EB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4107,7 +4112,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C01EB2B-53F3-4CC0-912B-2486F5469A6A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C01EB2B-53F3-4CC0-912B-2486F5469A6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4172,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA480DD6-C0E5-4749-B645-A5ED7967FFCE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA480DD6-C0E5-4749-B645-A5ED7967FFCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,7 +4227,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19CBD3AF-FBEF-4129-A583-877B83369EC1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CBD3AF-FBEF-4129-A583-877B83369EC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,7 +4273,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ECE-I"/>
@@ -5186,7 +5191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5218,9 +5223,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5252,6 +5258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5427,7 +5434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5437,7 +5444,7 @@
       <selection activeCell="F4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="13"/>
     <col min="2" max="3" width="33.88671875" style="168" customWidth="1"/>
@@ -5452,192 +5459,192 @@
     <col min="38" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="53.25" customHeight="1">
-      <c r="B1" s="210" t="s">
+    <row r="1" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="210"/>
-      <c r="AJ1" s="210"/>
-      <c r="AK1" s="210"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
     </row>
-    <row r="2" spans="1:37" ht="53.25" customHeight="1">
-      <c r="B2" s="210" t="s">
+    <row r="2" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="210"/>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="210"/>
-      <c r="AJ2" s="210"/>
-      <c r="AK2" s="210"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
     </row>
-    <row r="3" spans="1:37" ht="53.25" customHeight="1">
-      <c r="B3" s="211" t="s">
-        <v>660</v>
-      </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="211"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="211"/>
+    <row r="3" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="199" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="199"/>
+      <c r="AK3" s="199"/>
     </row>
-    <row r="4" spans="1:37" ht="186" customHeight="1">
-      <c r="A4" s="203" t="s">
+    <row r="4" spans="1:37" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="208" t="s">
+      <c r="D4" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="206" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="209" t="s">
+      <c r="G4" s="197" t="s">
+        <v>707</v>
+      </c>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197" t="s">
         <v>708</v>
       </c>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209" t="s">
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="203" t="s">
+        <v>716</v>
+      </c>
+      <c r="N4" s="204"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="203" t="s">
         <v>709</v>
       </c>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="197" t="s">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="197" t="s">
+        <v>711</v>
+      </c>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197" t="s">
+        <v>729</v>
+      </c>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197" t="s">
+        <v>710</v>
+      </c>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197" t="s">
         <v>717</v>
       </c>
-      <c r="N4" s="198"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="197" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="209" t="s">
-        <v>712</v>
-      </c>
-      <c r="T4" s="209"/>
-      <c r="U4" s="209"/>
-      <c r="V4" s="209" t="s">
-        <v>730</v>
-      </c>
-      <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="209" t="s">
-        <v>711</v>
-      </c>
-      <c r="Z4" s="209"/>
-      <c r="AA4" s="209"/>
-      <c r="AB4" s="209" t="s">
-        <v>728</v>
-      </c>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
-      <c r="AE4" s="209" t="s">
-        <v>718</v>
-      </c>
-      <c r="AF4" s="209"/>
-      <c r="AG4" s="209"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
       <c r="AH4" s="104" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AI4" s="44" t="s">
         <v>11</v>
@@ -5649,12 +5656,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="57.75" customHeight="1">
-      <c r="A5" s="204"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="201"/>
+    <row r="5" spans="1:37" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="210"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="207"/>
       <c r="F5" s="18"/>
       <c r="G5" s="11" t="s">
         <v>7</v>
@@ -5742,12 +5749,12 @@
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
     </row>
-    <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="204"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="201"/>
+    <row r="6" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="210"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="41" t="s">
         <v>2</v>
       </c>
@@ -5848,12 +5855,12 @@
       <c r="AJ6" s="19"/>
       <c r="AK6" s="57"/>
     </row>
-    <row r="7" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A7" s="205"/>
-      <c r="B7" s="207"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="202"/>
+    <row r="7" spans="1:37" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="211"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="208"/>
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
@@ -5927,7 +5934,7 @@
       <c r="AJ7" s="21"/>
       <c r="AK7" s="58"/>
     </row>
-    <row r="8" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="8" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>1</v>
       </c>
@@ -6042,11 +6049,11 @@
         <v>923</v>
       </c>
       <c r="AJ8" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK8" s="83"/>
     </row>
-    <row r="9" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="9" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>2</v>
       </c>
@@ -6161,11 +6168,11 @@
         <v>936</v>
       </c>
       <c r="AJ9" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK9" s="83"/>
     </row>
-    <row r="10" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="10" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>3</v>
       </c>
@@ -6280,11 +6287,11 @@
         <v>871</v>
       </c>
       <c r="AJ10" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK10" s="83"/>
     </row>
-    <row r="11" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="11" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>4</v>
       </c>
@@ -6399,11 +6406,11 @@
         <v>922</v>
       </c>
       <c r="AJ11" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK11" s="83"/>
     </row>
-    <row r="12" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="12" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>5</v>
       </c>
@@ -6518,11 +6525,11 @@
         <v>847</v>
       </c>
       <c r="AJ12" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK12" s="83"/>
     </row>
-    <row r="13" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="13" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>6</v>
       </c>
@@ -6637,11 +6644,11 @@
         <v>905</v>
       </c>
       <c r="AJ13" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK13" s="83"/>
     </row>
-    <row r="14" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="14" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>7</v>
       </c>
@@ -6756,11 +6763,11 @@
         <v>901</v>
       </c>
       <c r="AJ14" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK14" s="83"/>
     </row>
-    <row r="15" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="15" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>8</v>
       </c>
@@ -6875,11 +6882,11 @@
         <v>868</v>
       </c>
       <c r="AJ15" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK15" s="83"/>
     </row>
-    <row r="16" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="16" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>9</v>
       </c>
@@ -6994,11 +7001,11 @@
         <v>931</v>
       </c>
       <c r="AJ16" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK16" s="83"/>
     </row>
-    <row r="17" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="17" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>10</v>
       </c>
@@ -7113,11 +7120,11 @@
         <v>760</v>
       </c>
       <c r="AJ17" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK17" s="83"/>
     </row>
-    <row r="18" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="18" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>11</v>
       </c>
@@ -7131,7 +7138,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="169" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="73">
@@ -7232,11 +7239,11 @@
         <v>888</v>
       </c>
       <c r="AJ18" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK18" s="83"/>
     </row>
-    <row r="19" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="19" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>12</v>
       </c>
@@ -7351,11 +7358,11 @@
         <v>892</v>
       </c>
       <c r="AJ19" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK19" s="83"/>
     </row>
-    <row r="20" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="20" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <v>13</v>
       </c>
@@ -7470,11 +7477,11 @@
         <v>845</v>
       </c>
       <c r="AJ20" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK20" s="83"/>
     </row>
-    <row r="21" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="21" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>14</v>
       </c>
@@ -7589,11 +7596,11 @@
         <v>790</v>
       </c>
       <c r="AJ21" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK21" s="83"/>
     </row>
-    <row r="22" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="22" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>15</v>
       </c>
@@ -7708,11 +7715,11 @@
         <v>798</v>
       </c>
       <c r="AJ22" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK22" s="83"/>
     </row>
-    <row r="23" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="23" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71">
         <v>16</v>
       </c>
@@ -7827,11 +7834,11 @@
         <v>893</v>
       </c>
       <c r="AJ23" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK23" s="83"/>
     </row>
-    <row r="24" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="24" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71">
         <v>17</v>
       </c>
@@ -7946,11 +7953,11 @@
         <v>892</v>
       </c>
       <c r="AJ24" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK24" s="83"/>
     </row>
-    <row r="25" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="25" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
         <v>18</v>
       </c>
@@ -8065,11 +8072,11 @@
         <v>967</v>
       </c>
       <c r="AJ25" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK25" s="83"/>
     </row>
-    <row r="26" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="26" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
         <v>19</v>
       </c>
@@ -8184,11 +8191,11 @@
         <v>900</v>
       </c>
       <c r="AJ26" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK26" s="83"/>
     </row>
-    <row r="27" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="27" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71">
         <v>20</v>
       </c>
@@ -8303,11 +8310,11 @@
         <v>897</v>
       </c>
       <c r="AJ27" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK27" s="83"/>
     </row>
-    <row r="28" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="28" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
         <v>21</v>
       </c>
@@ -8422,11 +8429,11 @@
         <v>898</v>
       </c>
       <c r="AJ28" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK28" s="83"/>
     </row>
-    <row r="29" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="29" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
         <v>22</v>
       </c>
@@ -8541,11 +8548,11 @@
         <v>850</v>
       </c>
       <c r="AJ29" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK29" s="83"/>
     </row>
-    <row r="30" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="30" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="71">
         <v>23</v>
       </c>
@@ -8660,11 +8667,11 @@
         <v>849</v>
       </c>
       <c r="AJ30" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK30" s="83"/>
     </row>
-    <row r="31" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="31" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71">
         <v>24</v>
       </c>
@@ -8779,11 +8786,11 @@
         <v>874</v>
       </c>
       <c r="AJ31" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK31" s="83"/>
     </row>
-    <row r="32" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="32" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="71">
         <v>25</v>
       </c>
@@ -8898,11 +8905,11 @@
         <v>900</v>
       </c>
       <c r="AJ32" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK32" s="83"/>
     </row>
-    <row r="33" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="33" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71">
         <v>26</v>
       </c>
@@ -9017,11 +9024,11 @@
         <v>848</v>
       </c>
       <c r="AJ33" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK33" s="83"/>
     </row>
-    <row r="34" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="34" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71">
         <v>27</v>
       </c>
@@ -9136,11 +9143,11 @@
         <v>872</v>
       </c>
       <c r="AJ34" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK34" s="83"/>
     </row>
-    <row r="35" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="35" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="71">
         <v>28</v>
       </c>
@@ -9238,7 +9245,7 @@
         <v>41</v>
       </c>
       <c r="AE35" s="71" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF35" s="71">
         <v>22</v>
@@ -9255,13 +9262,13 @@
         <v>829</v>
       </c>
       <c r="AJ35" s="130" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AK35" s="83" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="36" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71">
         <v>29</v>
       </c>
@@ -9376,11 +9383,11 @@
         <v>905</v>
       </c>
       <c r="AJ36" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK36" s="83"/>
     </row>
-    <row r="37" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="37" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="71">
         <v>30</v>
       </c>
@@ -9495,11 +9502,11 @@
         <v>909</v>
       </c>
       <c r="AJ37" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK37" s="83"/>
     </row>
-    <row r="38" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="38" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>31</v>
       </c>
@@ -9513,7 +9520,7 @@
         <v>99</v>
       </c>
       <c r="E38" s="169" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F38" s="79"/>
       <c r="G38" s="73">
@@ -9614,11 +9621,11 @@
         <v>879</v>
       </c>
       <c r="AJ38" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK38" s="83"/>
     </row>
-    <row r="39" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="39" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="71">
         <v>32</v>
       </c>
@@ -9733,11 +9740,11 @@
         <v>921</v>
       </c>
       <c r="AJ39" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK39" s="83"/>
     </row>
-    <row r="40" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="40" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="71">
         <v>33</v>
       </c>
@@ -9852,11 +9859,11 @@
         <v>918</v>
       </c>
       <c r="AJ40" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK40" s="83"/>
     </row>
-    <row r="41" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="41" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="71">
         <v>34</v>
       </c>
@@ -9971,11 +9978,11 @@
         <v>821</v>
       </c>
       <c r="AJ41" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK41" s="83"/>
     </row>
-    <row r="42" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="42" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="71">
         <v>35</v>
       </c>
@@ -10090,11 +10097,11 @@
         <v>740</v>
       </c>
       <c r="AJ42" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK42" s="83"/>
     </row>
-    <row r="43" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="43" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="71">
         <v>36</v>
       </c>
@@ -10165,7 +10172,7 @@
         <v>32</v>
       </c>
       <c r="W43" s="71" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X43" s="74">
         <f t="shared" si="5"/>
@@ -10209,11 +10216,11 @@
         <v>760</v>
       </c>
       <c r="AJ43" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK43" s="83"/>
     </row>
-    <row r="44" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="44" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="71">
         <v>37</v>
       </c>
@@ -10328,11 +10335,11 @@
         <v>877</v>
       </c>
       <c r="AJ44" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK44" s="83"/>
     </row>
-    <row r="45" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="45" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="71">
         <v>38</v>
       </c>
@@ -10447,11 +10454,11 @@
         <v>872</v>
       </c>
       <c r="AJ45" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK45" s="83"/>
     </row>
-    <row r="46" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="46" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="71">
         <v>39</v>
       </c>
@@ -10566,11 +10573,11 @@
         <v>883</v>
       </c>
       <c r="AJ46" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK46" s="83"/>
     </row>
-    <row r="47" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="47" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="71">
         <v>40</v>
       </c>
@@ -10685,11 +10692,11 @@
         <v>922</v>
       </c>
       <c r="AJ47" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK47" s="83"/>
     </row>
-    <row r="48" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="48" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="71">
         <v>41</v>
       </c>
@@ -10804,11 +10811,11 @@
         <v>885</v>
       </c>
       <c r="AJ48" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK48" s="83"/>
     </row>
-    <row r="49" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="49" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="71">
         <v>42</v>
       </c>
@@ -10923,11 +10930,11 @@
         <v>861</v>
       </c>
       <c r="AJ49" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK49" s="83"/>
     </row>
-    <row r="50" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="50" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="71">
         <v>43</v>
       </c>
@@ -11042,11 +11049,11 @@
         <v>864</v>
       </c>
       <c r="AJ50" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK50" s="83"/>
     </row>
-    <row r="51" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="51" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="71">
         <v>44</v>
       </c>
@@ -11161,11 +11168,11 @@
         <v>897</v>
       </c>
       <c r="AJ51" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK51" s="83"/>
     </row>
-    <row r="52" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="52" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="71">
         <v>45</v>
       </c>
@@ -11280,11 +11287,11 @@
         <v>923</v>
       </c>
       <c r="AJ52" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK52" s="83"/>
     </row>
-    <row r="53" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="53" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="71">
         <v>46</v>
       </c>
@@ -11332,7 +11339,7 @@
         <v>164</v>
       </c>
       <c r="P53" s="71" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q53" s="71">
         <v>72</v>
@@ -11399,13 +11406,13 @@
         <v>778</v>
       </c>
       <c r="AJ53" s="130" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AK53" s="83" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="54" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="71">
         <v>47</v>
       </c>
@@ -11520,11 +11527,11 @@
         <v>862</v>
       </c>
       <c r="AJ54" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK54" s="83"/>
     </row>
-    <row r="55" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="55" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="71">
         <v>48</v>
       </c>
@@ -11639,11 +11646,11 @@
         <v>913</v>
       </c>
       <c r="AJ55" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK55" s="88"/>
     </row>
-    <row r="56" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="56" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="71">
         <v>49</v>
       </c>
@@ -11758,11 +11765,11 @@
         <v>836</v>
       </c>
       <c r="AJ56" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK56" s="83"/>
     </row>
-    <row r="57" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="57" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="71">
         <v>50</v>
       </c>
@@ -11877,11 +11884,11 @@
         <v>891</v>
       </c>
       <c r="AJ57" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK57" s="83"/>
     </row>
-    <row r="58" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="58" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="71">
         <v>51</v>
       </c>
@@ -11996,11 +12003,11 @@
         <v>900</v>
       </c>
       <c r="AJ58" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK58" s="83"/>
     </row>
-    <row r="59" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="59" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="71">
         <v>52</v>
       </c>
@@ -12115,11 +12122,11 @@
         <v>817</v>
       </c>
       <c r="AJ59" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK59" s="83"/>
     </row>
-    <row r="60" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1">
+    <row r="60" spans="1:37" s="84" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="71">
         <v>53</v>
       </c>
@@ -12234,11 +12241,11 @@
         <v>841</v>
       </c>
       <c r="AJ60" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK60" s="83"/>
     </row>
-    <row r="61" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="61" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="71">
         <v>54</v>
       </c>
@@ -12353,11 +12360,11 @@
         <v>865</v>
       </c>
       <c r="AJ61" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK61" s="74"/>
     </row>
-    <row r="62" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="62" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="71">
         <v>55</v>
       </c>
@@ -12472,11 +12479,11 @@
         <v>779</v>
       </c>
       <c r="AJ62" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK62" s="74"/>
     </row>
-    <row r="63" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="63" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="71">
         <v>56</v>
       </c>
@@ -12591,11 +12598,11 @@
         <v>890</v>
       </c>
       <c r="AJ63" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK63" s="95"/>
     </row>
-    <row r="64" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="64" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="71">
         <v>57</v>
       </c>
@@ -12710,11 +12717,11 @@
         <v>783</v>
       </c>
       <c r="AJ64" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK64" s="83"/>
     </row>
-    <row r="65" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="65" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="71">
         <v>58</v>
       </c>
@@ -12728,7 +12735,7 @@
         <v>502</v>
       </c>
       <c r="E65" s="171" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F65" s="72"/>
       <c r="G65" s="71">
@@ -12829,10 +12836,10 @@
         <v>857</v>
       </c>
       <c r="AJ65" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
-    <row r="66" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="66" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="71">
         <v>59</v>
       </c>
@@ -12947,11 +12954,11 @@
         <v>805</v>
       </c>
       <c r="AJ66" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK66" s="83"/>
     </row>
-    <row r="67" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="67" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="71">
         <v>60</v>
       </c>
@@ -13066,11 +13073,11 @@
         <v>843</v>
       </c>
       <c r="AJ67" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK67" s="83"/>
     </row>
-    <row r="68" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="68" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="71">
         <v>61</v>
       </c>
@@ -13185,11 +13192,11 @@
         <v>883</v>
       </c>
       <c r="AJ68" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK68" s="83"/>
     </row>
-    <row r="69" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="69" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="71">
         <v>62</v>
       </c>
@@ -13304,11 +13311,11 @@
         <v>867</v>
       </c>
       <c r="AJ69" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK69" s="83"/>
     </row>
-    <row r="70" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1">
+    <row r="70" spans="1:37" s="71" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="71">
         <v>63</v>
       </c>
@@ -13423,11 +13430,11 @@
         <v>916</v>
       </c>
       <c r="AJ70" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK70" s="83"/>
     </row>
-    <row r="71" spans="1:37" ht="87.75" customHeight="1">
+    <row r="71" spans="1:37" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="71">
         <v>64</v>
       </c>
@@ -13542,11 +13549,11 @@
         <v>879</v>
       </c>
       <c r="AJ71" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK71" s="150"/>
     </row>
-    <row r="72" spans="1:37" ht="87.75" customHeight="1">
+    <row r="72" spans="1:37" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="71">
         <v>65</v>
       </c>
@@ -13661,11 +13668,11 @@
         <v>799</v>
       </c>
       <c r="AJ72" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK72" s="150"/>
     </row>
-    <row r="73" spans="1:37" ht="87.75" customHeight="1">
+    <row r="73" spans="1:37" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="71">
         <v>66</v>
       </c>
@@ -13780,11 +13787,11 @@
         <v>845</v>
       </c>
       <c r="AJ73" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK73" s="150"/>
     </row>
-    <row r="74" spans="1:37" ht="87.75" customHeight="1">
+    <row r="74" spans="1:37" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="71">
         <v>67</v>
       </c>
@@ -13798,7 +13805,7 @@
         <v>519</v>
       </c>
       <c r="E74" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="71">
@@ -13899,11 +13906,11 @@
         <v>854</v>
       </c>
       <c r="AJ74" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK74" s="150"/>
     </row>
-    <row r="75" spans="1:37" ht="87.75" customHeight="1">
+    <row r="75" spans="1:37" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="71">
         <v>68</v>
       </c>
@@ -14018,12 +14025,16 @@
         <v>869</v>
       </c>
       <c r="AJ75" s="82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK75" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -14037,10 +14048,6 @@
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G8:G75 J8:J75 M8:M75 P8:P75">
@@ -14098,14 +14105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -14120,207 +14127,207 @@
     <col min="40" max="40" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="42" customFormat="1" ht="84" customHeight="1">
-      <c r="A1" s="220" t="s">
+    <row r="1" spans="1:40" s="42" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="220"/>
-      <c r="AH1" s="220"/>
-      <c r="AI1" s="220"/>
-      <c r="AJ1" s="220"/>
-      <c r="AK1" s="220"/>
-      <c r="AL1" s="220"/>
-      <c r="AM1" s="220"/>
-      <c r="AN1" s="220"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="217"/>
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="217"/>
+      <c r="AG1" s="217"/>
+      <c r="AH1" s="217"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="217"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="217"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="217"/>
     </row>
-    <row r="2" spans="1:40" s="42" customFormat="1" ht="84" customHeight="1">
-      <c r="A2" s="220" t="s">
+    <row r="2" spans="1:40" s="42" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="220"/>
-      <c r="AJ2" s="220"/>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="220"/>
-      <c r="AN2" s="220"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="217"/>
+      <c r="AH2" s="217"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="217"/>
+      <c r="AK2" s="217"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="217"/>
+      <c r="AN2" s="217"/>
     </row>
-    <row r="3" spans="1:40" s="42" customFormat="1" ht="84" customHeight="1">
-      <c r="A3" s="211" t="s">
-        <v>659</v>
-      </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="211"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="211"/>
-      <c r="AL3" s="211"/>
-      <c r="AM3" s="211"/>
-      <c r="AN3" s="211"/>
+    <row r="3" spans="1:40" s="42" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="199" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="199"/>
+      <c r="AK3" s="199"/>
+      <c r="AL3" s="199"/>
+      <c r="AM3" s="199"/>
+      <c r="AN3" s="199"/>
     </row>
-    <row r="4" spans="1:40" ht="238.5" customHeight="1">
-      <c r="A4" s="218" t="s">
+    <row r="4" spans="1:40" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="221" t="s">
+      <c r="D4" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="218" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="216" t="s">
+        <v>694</v>
+      </c>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216" t="s">
+        <v>740</v>
+      </c>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216" t="s">
+        <v>690</v>
+      </c>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="220" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="220" t="s">
+        <v>692</v>
+      </c>
+      <c r="T4" s="221"/>
+      <c r="U4" s="222"/>
+      <c r="V4" s="220" t="s">
+        <v>733</v>
+      </c>
+      <c r="W4" s="221"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="216" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z4" s="216"/>
+      <c r="AA4" s="216"/>
+      <c r="AB4" s="220" t="s">
         <v>695</v>
       </c>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214" t="s">
-        <v>741</v>
-      </c>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214" t="s">
-        <v>691</v>
-      </c>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="215" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q4" s="216"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="215" t="s">
-        <v>693</v>
-      </c>
-      <c r="T4" s="216"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="215" t="s">
-        <v>734</v>
-      </c>
-      <c r="W4" s="216"/>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="214" t="s">
-        <v>694</v>
-      </c>
-      <c r="Z4" s="214"/>
-      <c r="AA4" s="214"/>
-      <c r="AB4" s="215" t="s">
+      <c r="AC4" s="221"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="216" t="s">
         <v>696</v>
       </c>
-      <c r="AC4" s="216"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="214" t="s">
+      <c r="AF4" s="216"/>
+      <c r="AG4" s="216"/>
+      <c r="AH4" s="216" t="s">
         <v>697</v>
       </c>
-      <c r="AF4" s="214"/>
-      <c r="AG4" s="214"/>
-      <c r="AH4" s="214" t="s">
-        <v>698</v>
-      </c>
-      <c r="AI4" s="214"/>
-      <c r="AJ4" s="214"/>
+      <c r="AI4" s="216"/>
+      <c r="AJ4" s="216"/>
       <c r="AK4" s="128" t="s">
         <v>37</v>
       </c>
@@ -14334,12 +14341,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="47.25" customHeight="1">
-      <c r="A5" s="218"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
+    <row r="5" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="214"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
       <c r="F5" s="24"/>
       <c r="G5" s="37" t="s">
         <v>7</v>
@@ -14436,12 +14443,12 @@
       <c r="AM5" s="24"/>
       <c r="AN5" s="24"/>
     </row>
-    <row r="6" spans="1:40" ht="47.25" customHeight="1">
-      <c r="A6" s="218"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
+    <row r="6" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
       <c r="F6" s="25" t="s">
         <v>2</v>
       </c>
@@ -14554,12 +14561,12 @@
       <c r="AM6" s="48"/>
       <c r="AN6" s="35"/>
     </row>
-    <row r="7" spans="1:40" ht="47.25" customHeight="1">
-      <c r="A7" s="219"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
+    <row r="7" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="215"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
       <c r="F7" s="26" t="s">
         <v>3</v>
       </c>
@@ -14640,7 +14647,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="36"/>
     </row>
-    <row r="8" spans="1:40" ht="129" customHeight="1">
+    <row r="8" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>1</v>
       </c>
@@ -14765,11 +14772,11 @@
         <v>915</v>
       </c>
       <c r="AM8" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN8" s="83"/>
     </row>
-    <row r="9" spans="1:40" ht="129" customHeight="1">
+    <row r="9" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>2</v>
       </c>
@@ -14894,11 +14901,11 @@
         <v>972</v>
       </c>
       <c r="AM9" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN9" s="83"/>
     </row>
-    <row r="10" spans="1:40" ht="129" customHeight="1">
+    <row r="10" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>3</v>
       </c>
@@ -15023,11 +15030,11 @@
         <v>948</v>
       </c>
       <c r="AM10" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN10" s="83"/>
     </row>
-    <row r="11" spans="1:40" ht="129" customHeight="1">
+    <row r="11" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>4</v>
       </c>
@@ -15152,11 +15159,11 @@
         <v>832</v>
       </c>
       <c r="AM11" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN11" s="83"/>
     </row>
-    <row r="12" spans="1:40" ht="129" customHeight="1">
+    <row r="12" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>5</v>
       </c>
@@ -15281,11 +15288,11 @@
         <v>929</v>
       </c>
       <c r="AM12" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN12" s="83"/>
     </row>
-    <row r="13" spans="1:40" ht="129" customHeight="1">
+    <row r="13" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>6</v>
       </c>
@@ -15410,11 +15417,11 @@
         <v>904</v>
       </c>
       <c r="AM13" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN13" s="83"/>
     </row>
-    <row r="14" spans="1:40" ht="129" customHeight="1">
+    <row r="14" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>7</v>
       </c>
@@ -15539,11 +15546,11 @@
         <v>882</v>
       </c>
       <c r="AM14" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN14" s="83"/>
     </row>
-    <row r="15" spans="1:40" ht="129" customHeight="1">
+    <row r="15" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>8</v>
       </c>
@@ -15668,11 +15675,11 @@
         <v>1010</v>
       </c>
       <c r="AM15" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN15" s="83"/>
     </row>
-    <row r="16" spans="1:40" ht="129" customHeight="1">
+    <row r="16" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>9</v>
       </c>
@@ -15797,11 +15804,11 @@
         <v>914</v>
       </c>
       <c r="AM16" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN16" s="83"/>
     </row>
-    <row r="17" spans="1:40" ht="129" customHeight="1">
+    <row r="17" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>10</v>
       </c>
@@ -15926,11 +15933,11 @@
         <v>920</v>
       </c>
       <c r="AM17" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN17" s="83"/>
     </row>
-    <row r="18" spans="1:40" ht="129" customHeight="1">
+    <row r="18" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>11</v>
       </c>
@@ -16055,11 +16062,11 @@
         <v>839</v>
       </c>
       <c r="AM18" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN18" s="83"/>
     </row>
-    <row r="19" spans="1:40" ht="129" customHeight="1">
+    <row r="19" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>12</v>
       </c>
@@ -16184,11 +16191,11 @@
         <v>901</v>
       </c>
       <c r="AM19" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN19" s="83"/>
     </row>
-    <row r="20" spans="1:40" ht="129" customHeight="1">
+    <row r="20" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <v>13</v>
       </c>
@@ -16313,11 +16320,11 @@
         <v>933</v>
       </c>
       <c r="AM20" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN20" s="83"/>
     </row>
-    <row r="21" spans="1:40" ht="129" customHeight="1">
+    <row r="21" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>14</v>
       </c>
@@ -16442,11 +16449,11 @@
         <v>990</v>
       </c>
       <c r="AM21" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN21" s="83"/>
     </row>
-    <row r="22" spans="1:40" ht="129" customHeight="1">
+    <row r="22" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>15</v>
       </c>
@@ -16571,11 +16578,11 @@
         <v>862</v>
       </c>
       <c r="AM22" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN22" s="83"/>
     </row>
-    <row r="23" spans="1:40" ht="129" customHeight="1">
+    <row r="23" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71">
         <v>16</v>
       </c>
@@ -16700,11 +16707,11 @@
         <v>934</v>
       </c>
       <c r="AM23" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN23" s="83"/>
     </row>
-    <row r="24" spans="1:40" ht="129" customHeight="1">
+    <row r="24" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71">
         <v>17</v>
       </c>
@@ -16829,11 +16836,11 @@
         <v>912</v>
       </c>
       <c r="AM24" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN24" s="83"/>
     </row>
-    <row r="25" spans="1:40" ht="129" customHeight="1">
+    <row r="25" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
         <v>18</v>
       </c>
@@ -16958,11 +16965,11 @@
         <v>926</v>
       </c>
       <c r="AM25" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN25" s="83"/>
     </row>
-    <row r="26" spans="1:40" ht="129" customHeight="1">
+    <row r="26" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
         <v>19</v>
       </c>
@@ -17087,13 +17094,13 @@
         <v>850</v>
       </c>
       <c r="AM26" s="131" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN26" s="83" t="s">
         <v>704</v>
       </c>
-      <c r="AN26" s="83" t="s">
-        <v>705</v>
-      </c>
     </row>
-    <row r="27" spans="1:40" ht="129" customHeight="1">
+    <row r="27" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71">
         <v>20</v>
       </c>
@@ -17218,11 +17225,11 @@
         <v>907</v>
       </c>
       <c r="AM27" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN27" s="83"/>
     </row>
-    <row r="28" spans="1:40" ht="129" customHeight="1">
+    <row r="28" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
         <v>21</v>
       </c>
@@ -17347,11 +17354,11 @@
         <v>926</v>
       </c>
       <c r="AM28" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN28" s="83"/>
     </row>
-    <row r="29" spans="1:40" ht="129" customHeight="1">
+    <row r="29" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
         <v>22</v>
       </c>
@@ -17476,11 +17483,11 @@
         <v>925</v>
       </c>
       <c r="AM29" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN29" s="83"/>
     </row>
-    <row r="30" spans="1:40" ht="129" customHeight="1">
+    <row r="30" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="71">
         <v>23</v>
       </c>
@@ -17605,11 +17612,11 @@
         <v>944</v>
       </c>
       <c r="AM30" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN30" s="83"/>
     </row>
-    <row r="31" spans="1:40" ht="129" customHeight="1">
+    <row r="31" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71">
         <v>24</v>
       </c>
@@ -17734,11 +17741,11 @@
         <v>924</v>
       </c>
       <c r="AM31" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN31" s="83"/>
     </row>
-    <row r="32" spans="1:40" ht="129" customHeight="1">
+    <row r="32" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="71">
         <v>25</v>
       </c>
@@ -17863,11 +17870,11 @@
         <v>916</v>
       </c>
       <c r="AM32" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN32" s="83"/>
     </row>
-    <row r="33" spans="1:40" ht="129" customHeight="1">
+    <row r="33" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71">
         <v>26</v>
       </c>
@@ -17992,11 +17999,11 @@
         <v>930</v>
       </c>
       <c r="AM33" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN33" s="83"/>
     </row>
-    <row r="34" spans="1:40" ht="129" customHeight="1">
+    <row r="34" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71">
         <v>27</v>
       </c>
@@ -18121,11 +18128,11 @@
         <v>851</v>
       </c>
       <c r="AM34" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN34" s="83"/>
     </row>
-    <row r="35" spans="1:40" ht="129" customHeight="1">
+    <row r="35" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="71">
         <v>28</v>
       </c>
@@ -18250,11 +18257,11 @@
         <v>889</v>
       </c>
       <c r="AM35" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN35" s="83"/>
     </row>
-    <row r="36" spans="1:40" ht="129" customHeight="1">
+    <row r="36" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71">
         <v>29</v>
       </c>
@@ -18379,11 +18386,11 @@
         <v>921</v>
       </c>
       <c r="AM36" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN36" s="83"/>
     </row>
-    <row r="37" spans="1:40" ht="129" customHeight="1">
+    <row r="37" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="71">
         <v>30</v>
       </c>
@@ -18508,11 +18515,11 @@
         <v>963</v>
       </c>
       <c r="AM37" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN37" s="83"/>
     </row>
-    <row r="38" spans="1:40" ht="129" customHeight="1">
+    <row r="38" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>31</v>
       </c>
@@ -18637,11 +18644,11 @@
         <v>891</v>
       </c>
       <c r="AM38" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN38" s="83"/>
     </row>
-    <row r="39" spans="1:40" ht="129" customHeight="1">
+    <row r="39" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="71">
         <v>32</v>
       </c>
@@ -18766,11 +18773,11 @@
         <v>944</v>
       </c>
       <c r="AM39" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN39" s="83"/>
     </row>
-    <row r="40" spans="1:40" ht="129" customHeight="1">
+    <row r="40" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="71">
         <v>33</v>
       </c>
@@ -18895,11 +18902,11 @@
         <v>877</v>
       </c>
       <c r="AM40" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN40" s="83"/>
     </row>
-    <row r="41" spans="1:40" ht="129" customHeight="1">
+    <row r="41" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="71">
         <v>34</v>
       </c>
@@ -19024,11 +19031,11 @@
         <v>815</v>
       </c>
       <c r="AM41" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN41" s="83"/>
     </row>
-    <row r="42" spans="1:40" ht="129" customHeight="1">
+    <row r="42" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="71">
         <v>35</v>
       </c>
@@ -19153,11 +19160,11 @@
         <v>925</v>
       </c>
       <c r="AM42" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN42" s="83"/>
     </row>
-    <row r="43" spans="1:40" ht="129" customHeight="1">
+    <row r="43" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="71">
         <v>36</v>
       </c>
@@ -19282,11 +19289,11 @@
         <v>878</v>
       </c>
       <c r="AM43" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN43" s="83"/>
     </row>
-    <row r="44" spans="1:40" ht="129" customHeight="1">
+    <row r="44" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="71">
         <v>37</v>
       </c>
@@ -19411,11 +19418,11 @@
         <v>898</v>
       </c>
       <c r="AM44" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN44" s="83"/>
     </row>
-    <row r="45" spans="1:40" ht="129" customHeight="1">
+    <row r="45" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="71">
         <v>38</v>
       </c>
@@ -19540,11 +19547,11 @@
         <v>946</v>
       </c>
       <c r="AM45" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN45" s="83"/>
     </row>
-    <row r="46" spans="1:40" ht="129" customHeight="1">
+    <row r="46" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="71">
         <v>39</v>
       </c>
@@ -19669,11 +19676,11 @@
         <v>927</v>
       </c>
       <c r="AM46" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN46" s="83"/>
     </row>
-    <row r="47" spans="1:40" ht="129" customHeight="1">
+    <row r="47" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="71">
         <v>40</v>
       </c>
@@ -19701,7 +19708,7 @@
         <v>137</v>
       </c>
       <c r="J47" s="152" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K47" s="152">
         <v>67</v>
@@ -19798,13 +19805,13 @@
         <v>764</v>
       </c>
       <c r="AM47" s="131" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN47" s="83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="129" customHeight="1">
+    <row r="48" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="71">
         <v>41</v>
       </c>
@@ -19929,11 +19936,11 @@
         <v>926</v>
       </c>
       <c r="AM48" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN48" s="83"/>
     </row>
-    <row r="49" spans="1:40" ht="129" customHeight="1">
+    <row r="49" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="71">
         <v>42</v>
       </c>
@@ -20058,11 +20065,11 @@
         <v>780</v>
       </c>
       <c r="AM49" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN49" s="83"/>
     </row>
-    <row r="50" spans="1:40" ht="129" customHeight="1">
+    <row r="50" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="71">
         <v>43</v>
       </c>
@@ -20187,11 +20194,11 @@
         <v>892</v>
       </c>
       <c r="AM50" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN50" s="83"/>
     </row>
-    <row r="51" spans="1:40" ht="129" customHeight="1">
+    <row r="51" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="71">
         <v>44</v>
       </c>
@@ -20316,11 +20323,11 @@
         <v>907</v>
       </c>
       <c r="AM51" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN51" s="83"/>
     </row>
-    <row r="52" spans="1:40" ht="129" customHeight="1">
+    <row r="52" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="71">
         <v>45</v>
       </c>
@@ -20445,11 +20452,11 @@
         <v>789</v>
       </c>
       <c r="AM52" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN52" s="83"/>
     </row>
-    <row r="53" spans="1:40" ht="129" customHeight="1">
+    <row r="53" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="71">
         <v>46</v>
       </c>
@@ -20574,11 +20581,11 @@
         <v>958</v>
       </c>
       <c r="AM53" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN53" s="83"/>
     </row>
-    <row r="54" spans="1:40" ht="129" customHeight="1">
+    <row r="54" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="71">
         <v>47</v>
       </c>
@@ -20703,13 +20710,13 @@
         <v>814</v>
       </c>
       <c r="AM54" s="131" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN54" s="83" t="s">
         <v>704</v>
       </c>
-      <c r="AN54" s="83" t="s">
-        <v>705</v>
-      </c>
     </row>
-    <row r="55" spans="1:40" ht="129" customHeight="1">
+    <row r="55" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="71">
         <v>48</v>
       </c>
@@ -20834,11 +20841,11 @@
         <v>926</v>
       </c>
       <c r="AM55" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN55" s="83"/>
     </row>
-    <row r="56" spans="1:40" ht="129" customHeight="1">
+    <row r="56" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="71">
         <v>49</v>
       </c>
@@ -20963,11 +20970,11 @@
         <v>875</v>
       </c>
       <c r="AM56" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN56" s="83"/>
     </row>
-    <row r="57" spans="1:40" ht="129" customHeight="1">
+    <row r="57" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="71">
         <v>50</v>
       </c>
@@ -21092,13 +21099,13 @@
         <v>856</v>
       </c>
       <c r="AM57" s="131" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN57" s="83" t="s">
         <v>704</v>
       </c>
-      <c r="AN57" s="83" t="s">
-        <v>705</v>
-      </c>
     </row>
-    <row r="58" spans="1:40" ht="129" customHeight="1">
+    <row r="58" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="71">
         <v>51</v>
       </c>
@@ -21223,11 +21230,11 @@
         <v>894</v>
       </c>
       <c r="AM58" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN58" s="83"/>
     </row>
-    <row r="59" spans="1:40" ht="129" customHeight="1">
+    <row r="59" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="71">
         <v>52</v>
       </c>
@@ -21352,13 +21359,13 @@
         <v>801</v>
       </c>
       <c r="AM59" s="131" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN59" s="83" t="s">
         <v>704</v>
       </c>
-      <c r="AN59" s="83" t="s">
-        <v>705</v>
-      </c>
     </row>
-    <row r="60" spans="1:40" ht="129" customHeight="1">
+    <row r="60" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="71">
         <v>53</v>
       </c>
@@ -21483,11 +21490,11 @@
         <v>830</v>
       </c>
       <c r="AM60" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN60" s="83"/>
     </row>
-    <row r="61" spans="1:40" ht="129" customHeight="1">
+    <row r="61" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="71">
         <v>54</v>
       </c>
@@ -21612,11 +21619,11 @@
         <v>878</v>
       </c>
       <c r="AM61" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN61" s="114"/>
     </row>
-    <row r="62" spans="1:40" ht="129" customHeight="1">
+    <row r="62" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="71">
         <v>55</v>
       </c>
@@ -21741,11 +21748,11 @@
         <v>884</v>
       </c>
       <c r="AM62" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN62" s="83"/>
     </row>
-    <row r="63" spans="1:40" ht="129" customHeight="1">
+    <row r="63" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="71">
         <v>56</v>
       </c>
@@ -21870,11 +21877,11 @@
         <v>893</v>
       </c>
       <c r="AM63" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN63" s="78"/>
     </row>
-    <row r="64" spans="1:40" ht="129" customHeight="1">
+    <row r="64" spans="1:40" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="71">
         <v>57</v>
       </c>
@@ -21999,12 +22006,14 @@
         <v>791</v>
       </c>
       <c r="AM64" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN64" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="A1:AN1"/>
@@ -22021,8 +22030,6 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AB4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G64 J8:J64 M8:M64 P8:P64 S8:S64">
     <cfRule type="cellIs" dxfId="30" priority="26" stopIfTrue="1" operator="lessThan">
@@ -22054,14 +22061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="16" customWidth="1"/>
     <col min="2" max="3" width="32.109375" style="16" customWidth="1"/>
@@ -22085,209 +22092,209 @@
     <col min="42" max="16384" width="6.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="67.5" customHeight="1">
-      <c r="A1" s="220" t="s">
+    <row r="1" spans="1:40" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="220"/>
-      <c r="AH1" s="220"/>
-      <c r="AI1" s="220"/>
-      <c r="AJ1" s="220"/>
-      <c r="AK1" s="220"/>
-      <c r="AL1" s="220"/>
-      <c r="AM1" s="220"/>
-      <c r="AN1" s="220"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="217"/>
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="217"/>
+      <c r="AG1" s="217"/>
+      <c r="AH1" s="217"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="217"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="217"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="217"/>
     </row>
-    <row r="2" spans="1:40" ht="67.5" customHeight="1">
-      <c r="A2" s="220" t="s">
+    <row r="2" spans="1:40" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="220"/>
-      <c r="AJ2" s="220"/>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="220"/>
-      <c r="AN2" s="220"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="217"/>
+      <c r="AH2" s="217"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="217"/>
+      <c r="AK2" s="217"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="217"/>
+      <c r="AN2" s="217"/>
     </row>
-    <row r="3" spans="1:40" ht="67.5" customHeight="1">
-      <c r="A3" s="211" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="211"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="211"/>
-      <c r="AL3" s="211"/>
-      <c r="AM3" s="211"/>
-      <c r="AN3" s="211"/>
+    <row r="3" spans="1:40" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="199" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="199"/>
+      <c r="AK3" s="199"/>
+      <c r="AL3" s="199"/>
+      <c r="AM3" s="199"/>
+      <c r="AN3" s="199"/>
     </row>
-    <row r="4" spans="1:40" ht="249.75" customHeight="1">
-      <c r="A4" s="218" t="s">
+    <row r="4" spans="1:40" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="208" t="s">
+      <c r="D4" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="213" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="223" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H4" s="223"/>
       <c r="I4" s="223"/>
       <c r="J4" s="223" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K4" s="223"/>
       <c r="L4" s="223"/>
       <c r="M4" s="223" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N4" s="223"/>
       <c r="O4" s="223"/>
       <c r="P4" s="223" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q4" s="223"/>
       <c r="R4" s="223"/>
       <c r="S4" s="223" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T4" s="223"/>
       <c r="U4" s="223"/>
       <c r="V4" s="223" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W4" s="223"/>
       <c r="X4" s="223"/>
       <c r="Y4" s="223" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Z4" s="223"/>
       <c r="AA4" s="223"/>
       <c r="AB4" s="223" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AC4" s="223"/>
       <c r="AD4" s="223"/>
       <c r="AE4" s="223" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AF4" s="223"/>
       <c r="AG4" s="223"/>
       <c r="AH4" s="223" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AI4" s="223"/>
       <c r="AJ4" s="223"/>
       <c r="AK4" s="186" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AL4" s="186" t="s">
         <v>11</v>
@@ -22299,12 +22306,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A5" s="218"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
+    <row r="5" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="214"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="45"/>
       <c r="G5" s="11" t="s">
         <v>7</v>
@@ -22401,12 +22408,12 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
     </row>
-    <row r="6" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A6" s="218"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
+    <row r="6" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="45" t="s">
         <v>2</v>
       </c>
@@ -22514,12 +22521,12 @@
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
     </row>
-    <row r="7" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A7" s="219"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
+    <row r="7" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="215"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
       <c r="F7" s="46" t="s">
         <v>3</v>
       </c>
@@ -22600,7 +22607,7 @@
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
     </row>
-    <row r="8" spans="1:40" ht="123.75" customHeight="1">
+    <row r="8" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="174">
         <v>1</v>
       </c>
@@ -22725,11 +22732,11 @@
         <v>977</v>
       </c>
       <c r="AM8" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN8" s="52"/>
     </row>
-    <row r="9" spans="1:40" ht="123.75" customHeight="1">
+    <row r="9" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="174">
         <v>2</v>
       </c>
@@ -22854,11 +22861,11 @@
         <v>904</v>
       </c>
       <c r="AM9" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN9" s="52"/>
     </row>
-    <row r="10" spans="1:40" ht="123.75" customHeight="1">
+    <row r="10" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="174">
         <v>3</v>
       </c>
@@ -22886,7 +22893,7 @@
         <v>162</v>
       </c>
       <c r="J10" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K10" s="153">
         <v>60</v>
@@ -22916,7 +22923,7 @@
         <v>160</v>
       </c>
       <c r="S10" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T10" s="153">
         <v>74</v>
@@ -22956,7 +22963,7 @@
         <v>43</v>
       </c>
       <c r="AE10" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF10" s="152">
         <v>12</v>
@@ -22983,13 +22990,13 @@
         <v>684</v>
       </c>
       <c r="AM10" s="157" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN10" s="52" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="123.75" customHeight="1">
+    <row r="11" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="174">
         <v>4</v>
       </c>
@@ -23114,11 +23121,11 @@
         <v>864</v>
       </c>
       <c r="AM11" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN11" s="52"/>
     </row>
-    <row r="12" spans="1:40" ht="123.75" customHeight="1">
+    <row r="12" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="174">
         <v>5</v>
       </c>
@@ -23146,7 +23153,7 @@
         <v>143</v>
       </c>
       <c r="J12" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K12" s="153">
         <v>48</v>
@@ -23176,7 +23183,7 @@
         <v>156</v>
       </c>
       <c r="S12" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T12" s="153">
         <v>74</v>
@@ -23216,7 +23223,7 @@
         <v>41</v>
       </c>
       <c r="AE12" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF12" s="152">
         <v>12</v>
@@ -23243,13 +23250,13 @@
         <v>654</v>
       </c>
       <c r="AM12" s="157" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN12" s="52" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="123.75" customHeight="1">
+    <row r="13" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174">
         <v>6</v>
       </c>
@@ -23374,11 +23381,11 @@
         <v>906</v>
       </c>
       <c r="AM13" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN13" s="52"/>
     </row>
-    <row r="14" spans="1:40" ht="123.75" customHeight="1">
+    <row r="14" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="174">
         <v>7</v>
       </c>
@@ -23503,11 +23510,11 @@
         <v>922</v>
       </c>
       <c r="AM14" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN14" s="52"/>
     </row>
-    <row r="15" spans="1:40" ht="123.75" customHeight="1">
+    <row r="15" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="174">
         <v>8</v>
       </c>
@@ -23632,11 +23639,11 @@
         <v>892</v>
       </c>
       <c r="AM15" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN15" s="52"/>
     </row>
-    <row r="16" spans="1:40" ht="123.75" customHeight="1">
+    <row r="16" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="174">
         <v>9</v>
       </c>
@@ -23761,11 +23768,11 @@
         <v>947</v>
       </c>
       <c r="AM16" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN16" s="52"/>
     </row>
-    <row r="17" spans="1:40" ht="123.75" customHeight="1">
+    <row r="17" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="174">
         <v>10</v>
       </c>
@@ -23890,11 +23897,11 @@
         <v>828</v>
       </c>
       <c r="AM17" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN17" s="52"/>
     </row>
-    <row r="18" spans="1:40" ht="123.75" customHeight="1">
+    <row r="18" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="174">
         <v>11</v>
       </c>
@@ -23922,7 +23929,7 @@
         <v>174</v>
       </c>
       <c r="J18" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K18" s="153">
         <v>72</v>
@@ -24019,13 +24026,13 @@
         <v>900</v>
       </c>
       <c r="AM18" s="157" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN18" s="52" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="123.75" customHeight="1">
+    <row r="19" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="174">
         <v>12</v>
       </c>
@@ -24150,11 +24157,11 @@
         <v>941</v>
       </c>
       <c r="AM19" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN19" s="52"/>
     </row>
-    <row r="20" spans="1:40" ht="123.75" customHeight="1">
+    <row r="20" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="174">
         <v>13</v>
       </c>
@@ -24279,11 +24286,11 @@
         <v>966</v>
       </c>
       <c r="AM20" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN20" s="52"/>
     </row>
-    <row r="21" spans="1:40" ht="123.75" customHeight="1">
+    <row r="21" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="174">
         <v>14</v>
       </c>
@@ -24408,11 +24415,11 @@
         <v>907</v>
       </c>
       <c r="AM21" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN21" s="52"/>
     </row>
-    <row r="22" spans="1:40" ht="123.75" customHeight="1">
+    <row r="22" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="174">
         <v>15</v>
       </c>
@@ -24537,11 +24544,11 @@
         <v>899</v>
       </c>
       <c r="AM22" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN22" s="52"/>
     </row>
-    <row r="23" spans="1:40" ht="123.75" customHeight="1">
+    <row r="23" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="174">
         <v>16</v>
       </c>
@@ -24666,11 +24673,11 @@
         <v>896</v>
       </c>
       <c r="AM23" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN23" s="52"/>
     </row>
-    <row r="24" spans="1:40" ht="123.75" customHeight="1">
+    <row r="24" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="174">
         <v>17</v>
       </c>
@@ -24795,11 +24802,11 @@
         <v>709</v>
       </c>
       <c r="AM24" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN24" s="163"/>
     </row>
-    <row r="25" spans="1:40" ht="123.75" customHeight="1">
+    <row r="25" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="174">
         <v>18</v>
       </c>
@@ -24924,11 +24931,11 @@
         <v>934</v>
       </c>
       <c r="AM25" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN25" s="52"/>
     </row>
-    <row r="26" spans="1:40" ht="123.75" customHeight="1">
+    <row r="26" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="174">
         <v>19</v>
       </c>
@@ -24986,7 +24993,7 @@
         <v>140</v>
       </c>
       <c r="S26" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T26" s="153">
         <v>73</v>
@@ -25053,13 +25060,13 @@
         <v>727</v>
       </c>
       <c r="AM26" s="157" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AN26" s="52" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="123.75" customHeight="1">
+    <row r="27" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="174">
         <v>20</v>
       </c>
@@ -25184,11 +25191,11 @@
         <v>843</v>
       </c>
       <c r="AM27" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN27" s="106"/>
     </row>
-    <row r="28" spans="1:40" ht="123.75" customHeight="1">
+    <row r="28" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="174">
         <v>21</v>
       </c>
@@ -25313,11 +25320,11 @@
         <v>918</v>
       </c>
       <c r="AM28" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN28" s="52"/>
     </row>
-    <row r="29" spans="1:40" ht="123.75" customHeight="1">
+    <row r="29" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="174">
         <v>22</v>
       </c>
@@ -25442,11 +25449,11 @@
         <v>953</v>
       </c>
       <c r="AM29" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN29" s="106"/>
     </row>
-    <row r="30" spans="1:40" ht="123.75" customHeight="1">
+    <row r="30" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="174">
         <v>23</v>
       </c>
@@ -25571,11 +25578,11 @@
         <v>902</v>
       </c>
       <c r="AM30" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN30" s="52"/>
     </row>
-    <row r="31" spans="1:40" ht="123.75" customHeight="1">
+    <row r="31" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="174">
         <v>24</v>
       </c>
@@ -25700,11 +25707,11 @@
         <v>865</v>
       </c>
       <c r="AM31" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN31" s="52"/>
     </row>
-    <row r="32" spans="1:40" ht="123.75" customHeight="1">
+    <row r="32" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="174">
         <v>25</v>
       </c>
@@ -25829,11 +25836,11 @@
         <v>965</v>
       </c>
       <c r="AM32" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN32" s="52"/>
     </row>
-    <row r="33" spans="1:40" ht="123.75" customHeight="1">
+    <row r="33" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="174">
         <v>26</v>
       </c>
@@ -25958,11 +25965,11 @@
         <v>915</v>
       </c>
       <c r="AM33" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN33" s="52"/>
     </row>
-    <row r="34" spans="1:40" ht="123.75" customHeight="1">
+    <row r="34" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="174">
         <v>27</v>
       </c>
@@ -26087,11 +26094,11 @@
         <v>922</v>
       </c>
       <c r="AM34" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN34" s="52"/>
     </row>
-    <row r="35" spans="1:40" ht="123.75" customHeight="1">
+    <row r="35" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="174">
         <v>28</v>
       </c>
@@ -26216,11 +26223,11 @@
         <v>874</v>
       </c>
       <c r="AM35" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN35" s="52"/>
     </row>
-    <row r="36" spans="1:40" ht="123.75" customHeight="1">
+    <row r="36" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="174">
         <v>29</v>
       </c>
@@ -26345,11 +26352,11 @@
         <v>913</v>
       </c>
       <c r="AM36" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN36" s="52"/>
     </row>
-    <row r="37" spans="1:40" ht="123.75" customHeight="1">
+    <row r="37" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="174">
         <v>30</v>
       </c>
@@ -26474,11 +26481,11 @@
         <v>918</v>
       </c>
       <c r="AM37" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN37" s="160"/>
     </row>
-    <row r="38" spans="1:40" ht="123.75" customHeight="1">
+    <row r="38" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="174">
         <v>31</v>
       </c>
@@ -26603,11 +26610,11 @@
         <v>799</v>
       </c>
       <c r="AM38" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN38" s="52"/>
     </row>
-    <row r="39" spans="1:40" ht="123.75" customHeight="1">
+    <row r="39" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="174">
         <v>32</v>
       </c>
@@ -26732,11 +26739,11 @@
         <v>824</v>
       </c>
       <c r="AM39" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN39" s="52"/>
     </row>
-    <row r="40" spans="1:40" ht="123.75" customHeight="1">
+    <row r="40" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="174">
         <v>33</v>
       </c>
@@ -26861,11 +26868,11 @@
         <v>928</v>
       </c>
       <c r="AM40" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN40" s="52"/>
     </row>
-    <row r="41" spans="1:40" ht="123.75" customHeight="1">
+    <row r="41" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="174">
         <v>34</v>
       </c>
@@ -26990,11 +26997,11 @@
         <v>919</v>
       </c>
       <c r="AM41" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN41" s="52"/>
     </row>
-    <row r="42" spans="1:40" ht="123.75" customHeight="1">
+    <row r="42" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="174">
         <v>35</v>
       </c>
@@ -27119,11 +27126,11 @@
         <v>919</v>
       </c>
       <c r="AM42" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN42" s="52"/>
     </row>
-    <row r="43" spans="1:40" ht="123.75" customHeight="1">
+    <row r="43" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="174">
         <v>36</v>
       </c>
@@ -27248,11 +27255,11 @@
         <v>937</v>
       </c>
       <c r="AM43" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN43" s="52"/>
     </row>
-    <row r="44" spans="1:40" ht="123.75" customHeight="1">
+    <row r="44" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="174">
         <v>37</v>
       </c>
@@ -27377,11 +27384,11 @@
         <v>845</v>
       </c>
       <c r="AM44" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN44" s="52"/>
     </row>
-    <row r="45" spans="1:40" ht="123.75" customHeight="1">
+    <row r="45" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="174">
         <v>38</v>
       </c>
@@ -27506,11 +27513,11 @@
         <v>798</v>
       </c>
       <c r="AM45" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN45" s="52"/>
     </row>
-    <row r="46" spans="1:40" ht="123.75" customHeight="1">
+    <row r="46" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="174">
         <v>39</v>
       </c>
@@ -27635,11 +27642,11 @@
         <v>864</v>
       </c>
       <c r="AM46" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN46" s="52"/>
     </row>
-    <row r="47" spans="1:40" ht="123.75" customHeight="1">
+    <row r="47" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="174">
         <v>40</v>
       </c>
@@ -27764,11 +27771,11 @@
         <v>825</v>
       </c>
       <c r="AM47" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN47" s="52"/>
     </row>
-    <row r="48" spans="1:40" ht="123.75" customHeight="1">
+    <row r="48" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="174">
         <v>41</v>
       </c>
@@ -27893,11 +27900,11 @@
         <v>897</v>
       </c>
       <c r="AM48" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN48" s="52"/>
     </row>
-    <row r="49" spans="1:40" ht="123.75" customHeight="1">
+    <row r="49" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="174">
         <v>42</v>
       </c>
@@ -28022,11 +28029,11 @@
         <v>1054</v>
       </c>
       <c r="AM49" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN49" s="52"/>
     </row>
-    <row r="50" spans="1:40" ht="123.75" customHeight="1">
+    <row r="50" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="174">
         <v>43</v>
       </c>
@@ -28151,11 +28158,11 @@
         <v>910</v>
       </c>
       <c r="AM50" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN50" s="106"/>
     </row>
-    <row r="51" spans="1:40" ht="123.75" customHeight="1">
+    <row r="51" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="174">
         <v>44</v>
       </c>
@@ -28280,11 +28287,11 @@
         <v>812</v>
       </c>
       <c r="AM51" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN51" s="160"/>
     </row>
-    <row r="52" spans="1:40" ht="123.75" customHeight="1">
+    <row r="52" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="174">
         <v>45</v>
       </c>
@@ -28409,11 +28416,11 @@
         <v>861</v>
       </c>
       <c r="AM52" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN52" s="52"/>
     </row>
-    <row r="53" spans="1:40" ht="123.75" customHeight="1">
+    <row r="53" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="174">
         <v>46</v>
       </c>
@@ -28538,11 +28545,11 @@
         <v>937</v>
       </c>
       <c r="AM53" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN53" s="106"/>
     </row>
-    <row r="54" spans="1:40" ht="123.75" customHeight="1">
+    <row r="54" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="174">
         <v>47</v>
       </c>
@@ -28553,10 +28560,10 @@
         <v>190000100253</v>
       </c>
       <c r="D54" s="182" t="s">
+        <v>648</v>
+      </c>
+      <c r="E54" s="182" t="s">
         <v>649</v>
-      </c>
-      <c r="E54" s="182" t="s">
-        <v>650</v>
       </c>
       <c r="F54" s="61"/>
       <c r="G54" s="158">
@@ -28667,11 +28674,11 @@
         <v>891</v>
       </c>
       <c r="AM54" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN54" s="106"/>
     </row>
-    <row r="55" spans="1:40" ht="123.75" customHeight="1">
+    <row r="55" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="174">
         <v>48</v>
       </c>
@@ -28796,11 +28803,11 @@
         <v>968</v>
       </c>
       <c r="AM55" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN55" s="52"/>
     </row>
-    <row r="56" spans="1:40" ht="123.75" customHeight="1">
+    <row r="56" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="174">
         <v>49</v>
       </c>
@@ -28925,11 +28932,11 @@
         <v>748</v>
       </c>
       <c r="AM56" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN56" s="161"/>
     </row>
-    <row r="57" spans="1:40" ht="123.75" customHeight="1">
+    <row r="57" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="174">
         <v>50</v>
       </c>
@@ -29054,11 +29061,11 @@
         <v>847</v>
       </c>
       <c r="AM57" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN57" s="161"/>
     </row>
-    <row r="58" spans="1:40" ht="123.75" customHeight="1">
+    <row r="58" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="174">
         <v>51</v>
       </c>
@@ -29183,11 +29190,11 @@
         <v>957</v>
       </c>
       <c r="AM58" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN58" s="83"/>
     </row>
-    <row r="59" spans="1:40" ht="123.75" customHeight="1">
+    <row r="59" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="174">
         <v>52</v>
       </c>
@@ -29312,11 +29319,11 @@
         <v>866</v>
       </c>
       <c r="AM59" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN59" s="106"/>
     </row>
-    <row r="60" spans="1:40" ht="123.75" customHeight="1">
+    <row r="60" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="174">
         <v>53</v>
       </c>
@@ -29441,11 +29448,11 @@
         <v>913</v>
       </c>
       <c r="AM60" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN60" s="78"/>
     </row>
-    <row r="61" spans="1:40" ht="123.75" customHeight="1">
+    <row r="61" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="174">
         <v>54</v>
       </c>
@@ -29570,11 +29577,11 @@
         <v>890</v>
       </c>
       <c r="AM61" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN61" s="78"/>
     </row>
-    <row r="62" spans="1:40" ht="123.75" customHeight="1">
+    <row r="62" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="174">
         <v>55</v>
       </c>
@@ -29699,11 +29706,11 @@
         <v>945</v>
       </c>
       <c r="AM62" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN62" s="78"/>
     </row>
-    <row r="63" spans="1:40" ht="123.75" customHeight="1">
+    <row r="63" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="174">
         <v>56</v>
       </c>
@@ -29828,11 +29835,11 @@
         <v>891</v>
       </c>
       <c r="AM63" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN63" s="106"/>
     </row>
-    <row r="64" spans="1:40" ht="123.75" customHeight="1">
+    <row r="64" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="174">
         <v>57</v>
       </c>
@@ -29957,11 +29964,11 @@
         <v>987</v>
       </c>
       <c r="AM64" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN64" s="78"/>
     </row>
-    <row r="65" spans="1:40" ht="123.75" customHeight="1">
+    <row r="65" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="174">
         <v>58</v>
       </c>
@@ -30086,11 +30093,11 @@
         <v>906</v>
       </c>
       <c r="AM65" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN65" s="78"/>
     </row>
-    <row r="66" spans="1:40" ht="123.75" customHeight="1">
+    <row r="66" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="174">
         <v>59</v>
       </c>
@@ -30215,11 +30222,11 @@
         <v>941</v>
       </c>
       <c r="AM66" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN66" s="106"/>
     </row>
-    <row r="67" spans="1:40" ht="123.75" customHeight="1">
+    <row r="67" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="174">
         <v>60</v>
       </c>
@@ -30344,11 +30351,11 @@
         <v>938</v>
       </c>
       <c r="AM67" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN67" s="78"/>
     </row>
-    <row r="68" spans="1:40" ht="123.75" customHeight="1">
+    <row r="68" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="174">
         <v>61</v>
       </c>
@@ -30473,11 +30480,11 @@
         <v>906</v>
       </c>
       <c r="AM68" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN68" s="106"/>
     </row>
-    <row r="69" spans="1:40" ht="123.75" customHeight="1">
+    <row r="69" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="174">
         <v>62</v>
       </c>
@@ -30602,11 +30609,11 @@
         <v>949</v>
       </c>
       <c r="AM69" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN69" s="106"/>
     </row>
-    <row r="70" spans="1:40" ht="123.75" customHeight="1">
+    <row r="70" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="174">
         <v>63</v>
       </c>
@@ -30731,11 +30738,11 @@
         <v>934</v>
       </c>
       <c r="AM70" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN70" s="78"/>
     </row>
-    <row r="71" spans="1:40" ht="123.75" customHeight="1">
+    <row r="71" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="174">
         <v>64</v>
       </c>
@@ -30860,11 +30867,11 @@
         <v>738</v>
       </c>
       <c r="AM71" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN71" s="78"/>
     </row>
-    <row r="72" spans="1:40" ht="123.75" customHeight="1">
+    <row r="72" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="174">
         <v>65</v>
       </c>
@@ -30875,10 +30882,10 @@
         <v>700090100046</v>
       </c>
       <c r="D72" s="184" t="s">
+        <v>741</v>
+      </c>
+      <c r="E72" s="184" t="s">
         <v>615</v>
-      </c>
-      <c r="E72" s="184" t="s">
-        <v>616</v>
       </c>
       <c r="F72" s="98"/>
       <c r="G72" s="158">
@@ -30989,11 +30996,11 @@
         <v>930</v>
       </c>
       <c r="AM72" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN72" s="78"/>
     </row>
-    <row r="73" spans="1:40" ht="123.75" customHeight="1">
+    <row r="73" spans="1:40" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="174">
         <v>66</v>
       </c>
@@ -31004,10 +31011,10 @@
         <v>700090100047</v>
       </c>
       <c r="D73" s="183" t="s">
+        <v>616</v>
+      </c>
+      <c r="E73" s="183" t="s">
         <v>617</v>
-      </c>
-      <c r="E73" s="183" t="s">
-        <v>618</v>
       </c>
       <c r="F73" s="98"/>
       <c r="G73" s="158">
@@ -31118,12 +31125,14 @@
         <v>907</v>
       </c>
       <c r="AM73" s="156" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN73" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -31140,8 +31149,6 @@
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G73 J8:J73 M8:M73 P8:P73 S8:S73">
     <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="lessThan">
@@ -31181,14 +31188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="F4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" customWidth="1"/>
@@ -31206,209 +31213,209 @@
     <col min="41" max="16384" width="6.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="42" customHeight="1">
-      <c r="A1" s="224" t="s">
+    <row r="1" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
-      <c r="AH1" s="224"/>
-      <c r="AI1" s="224"/>
-      <c r="AJ1" s="224"/>
-      <c r="AK1" s="224"/>
-      <c r="AL1" s="224"/>
-      <c r="AM1" s="224"/>
-      <c r="AN1" s="224"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="226"/>
+      <c r="AI1" s="226"/>
+      <c r="AJ1" s="226"/>
+      <c r="AK1" s="226"/>
+      <c r="AL1" s="226"/>
+      <c r="AM1" s="226"/>
+      <c r="AN1" s="226"/>
     </row>
-    <row r="2" spans="1:40" ht="42" customHeight="1">
-      <c r="A2" s="224" t="s">
+    <row r="2" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="224"/>
-      <c r="AM2" s="224"/>
-      <c r="AN2" s="224"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="226"/>
+      <c r="AI2" s="226"/>
+      <c r="AJ2" s="226"/>
+      <c r="AK2" s="226"/>
+      <c r="AL2" s="226"/>
+      <c r="AM2" s="226"/>
+      <c r="AN2" s="226"/>
     </row>
-    <row r="3" spans="1:40" ht="42" customHeight="1">
-      <c r="A3" s="225" t="s">
-        <v>657</v>
-      </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
-      <c r="M3" s="225"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="225"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="225"/>
-      <c r="AC3" s="225"/>
-      <c r="AD3" s="225"/>
-      <c r="AE3" s="225"/>
-      <c r="AF3" s="225"/>
-      <c r="AG3" s="225"/>
-      <c r="AH3" s="225"/>
-      <c r="AI3" s="225"/>
-      <c r="AJ3" s="225"/>
-      <c r="AK3" s="225"/>
-      <c r="AL3" s="225"/>
-      <c r="AM3" s="225"/>
-      <c r="AN3" s="225"/>
+    <row r="3" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="227" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="227"/>
+      <c r="AB3" s="227"/>
+      <c r="AC3" s="227"/>
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="227"/>
+      <c r="AG3" s="227"/>
+      <c r="AH3" s="227"/>
+      <c r="AI3" s="227"/>
+      <c r="AJ3" s="227"/>
+      <c r="AK3" s="227"/>
+      <c r="AL3" s="227"/>
+      <c r="AM3" s="227"/>
+      <c r="AN3" s="227"/>
     </row>
-    <row r="4" spans="1:40" ht="180.75" customHeight="1">
-      <c r="A4" s="226" t="s">
+    <row r="4" spans="1:40" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="226" t="s">
+      <c r="C4" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="221" t="s">
+      <c r="D4" s="218" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="218" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="197" t="s">
+      <c r="G4" s="203" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" s="204"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="203" t="s">
         <v>667</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="197" t="s">
+      <c r="K4" s="204"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="203" t="s">
         <v>668</v>
       </c>
-      <c r="K4" s="198"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="197" t="s">
+      <c r="N4" s="204"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="203" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="203" t="s">
+        <v>726</v>
+      </c>
+      <c r="T4" s="204"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="203" t="s">
+        <v>731</v>
+      </c>
+      <c r="W4" s="204"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="197" t="s">
         <v>669</v>
       </c>
-      <c r="N4" s="198"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="197" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="197" t="s">
-        <v>727</v>
-      </c>
-      <c r="T4" s="198"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="197" t="s">
-        <v>732</v>
-      </c>
-      <c r="W4" s="198"/>
-      <c r="X4" s="199"/>
-      <c r="Y4" s="209" t="s">
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197" t="s">
         <v>670</v>
       </c>
-      <c r="Z4" s="209"/>
-      <c r="AA4" s="209"/>
-      <c r="AB4" s="209" t="s">
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197" t="s">
         <v>671</v>
       </c>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
-      <c r="AE4" s="209" t="s">
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197" t="s">
         <v>672</v>
       </c>
-      <c r="AF4" s="209"/>
-      <c r="AG4" s="209"/>
-      <c r="AH4" s="209" t="s">
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="56" t="s">
         <v>673</v>
-      </c>
-      <c r="AI4" s="209"/>
-      <c r="AJ4" s="209"/>
-      <c r="AK4" s="56" t="s">
-        <v>674</v>
       </c>
       <c r="AL4" s="55" t="s">
         <v>11</v>
@@ -31420,12 +31427,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A5" s="226"/>
-      <c r="B5" s="226"/>
-      <c r="C5" s="226"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
+    <row r="5" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="224"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
       <c r="F5" s="17"/>
       <c r="G5" s="37" t="s">
         <v>7</v>
@@ -31522,12 +31529,12 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
     </row>
-    <row r="6" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A6" s="226"/>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
+    <row r="6" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="224"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
       <c r="F6" s="17" t="s">
         <v>2</v>
       </c>
@@ -31640,12 +31647,12 @@
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
     </row>
-    <row r="7" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A7" s="227"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
+    <row r="7" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="225"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
       <c r="F7" s="29" t="s">
         <v>3</v>
       </c>
@@ -31726,7 +31733,7 @@
       <c r="AM7" s="49"/>
       <c r="AN7" s="22"/>
     </row>
-    <row r="8" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="8" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="115">
         <v>1</v>
       </c>
@@ -31851,11 +31858,11 @@
         <v>652</v>
       </c>
       <c r="AM8" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN8" s="83"/>
     </row>
-    <row r="9" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="9" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="115">
         <v>2</v>
       </c>
@@ -31980,11 +31987,11 @@
         <v>624</v>
       </c>
       <c r="AM9" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN9" s="119"/>
     </row>
-    <row r="10" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="10" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="115">
         <v>3</v>
       </c>
@@ -32109,11 +32116,11 @@
         <v>628</v>
       </c>
       <c r="AM10" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN10" s="83"/>
     </row>
-    <row r="11" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="11" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="115">
         <v>4</v>
       </c>
@@ -32238,11 +32245,11 @@
         <v>703</v>
       </c>
       <c r="AM11" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN11" s="83"/>
     </row>
-    <row r="12" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="12" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="115">
         <v>5</v>
       </c>
@@ -32310,7 +32317,7 @@
         <v>69</v>
       </c>
       <c r="V12" s="154" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W12" s="154">
         <v>42</v>
@@ -32367,13 +32374,13 @@
         <v>540</v>
       </c>
       <c r="AM12" s="131" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN12" s="83" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="13" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="115">
         <v>6</v>
       </c>
@@ -32498,11 +32505,11 @@
         <v>667</v>
       </c>
       <c r="AM13" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN13" s="83"/>
     </row>
-    <row r="14" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="14" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="115">
         <v>7</v>
       </c>
@@ -32627,11 +32634,11 @@
         <v>686</v>
       </c>
       <c r="AM14" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN14" s="83"/>
     </row>
-    <row r="15" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="15" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="115">
         <v>8</v>
       </c>
@@ -32756,11 +32763,11 @@
         <v>765</v>
       </c>
       <c r="AM15" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN15" s="83"/>
     </row>
-    <row r="16" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="16" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="115">
         <v>9</v>
       </c>
@@ -32885,11 +32892,11 @@
         <v>680</v>
       </c>
       <c r="AM16" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN16" s="83"/>
     </row>
-    <row r="17" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="17" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="115">
         <v>10</v>
       </c>
@@ -33014,11 +33021,11 @@
         <v>625</v>
       </c>
       <c r="AM17" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN17" s="83"/>
     </row>
-    <row r="18" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="18" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="115">
         <v>11</v>
       </c>
@@ -33143,11 +33150,11 @@
         <v>642</v>
       </c>
       <c r="AM18" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN18" s="83"/>
     </row>
-    <row r="19" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="19" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="115">
         <v>12</v>
       </c>
@@ -33272,11 +33279,11 @@
         <v>659</v>
       </c>
       <c r="AM19" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN19" s="83"/>
     </row>
-    <row r="20" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="20" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="115">
         <v>13</v>
       </c>
@@ -33401,11 +33408,11 @@
         <v>667</v>
       </c>
       <c r="AM20" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN20" s="121"/>
     </row>
-    <row r="21" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="21" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="115">
         <v>14</v>
       </c>
@@ -33419,7 +33426,7 @@
         <v>337</v>
       </c>
       <c r="E21" s="118" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="152">
@@ -33530,11 +33537,11 @@
         <v>653</v>
       </c>
       <c r="AM21" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN21" s="83"/>
     </row>
-    <row r="22" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="22" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="115">
         <v>15</v>
       </c>
@@ -33659,11 +33666,11 @@
         <v>616</v>
       </c>
       <c r="AM22" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN22" s="83"/>
     </row>
-    <row r="23" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="115">
         <v>16</v>
       </c>
@@ -33788,11 +33795,11 @@
         <v>656</v>
       </c>
       <c r="AM23" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN23" s="83"/>
     </row>
-    <row r="24" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="24" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="115">
         <v>17</v>
       </c>
@@ -33917,11 +33924,11 @@
         <v>727</v>
       </c>
       <c r="AM24" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN24" s="83"/>
     </row>
-    <row r="25" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="25" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="115">
         <v>18</v>
       </c>
@@ -34046,11 +34053,11 @@
         <v>660</v>
       </c>
       <c r="AM25" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN25" s="83"/>
     </row>
-    <row r="26" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="26" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="115">
         <v>19</v>
       </c>
@@ -34175,11 +34182,11 @@
         <v>647</v>
       </c>
       <c r="AM26" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN26" s="83"/>
     </row>
-    <row r="27" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="27" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="115">
         <v>20</v>
       </c>
@@ -34304,11 +34311,11 @@
         <v>673</v>
       </c>
       <c r="AM27" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN27" s="83"/>
     </row>
-    <row r="28" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="28" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="115">
         <v>21</v>
       </c>
@@ -34433,11 +34440,11 @@
         <v>534</v>
       </c>
       <c r="AM28" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN28" s="83"/>
     </row>
-    <row r="29" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="29" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="115">
         <v>22</v>
       </c>
@@ -34562,11 +34569,11 @@
         <v>717</v>
       </c>
       <c r="AM29" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN29" s="83"/>
     </row>
-    <row r="30" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="30" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="115">
         <v>23</v>
       </c>
@@ -34691,11 +34698,11 @@
         <v>689</v>
       </c>
       <c r="AM30" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN30" s="83"/>
     </row>
-    <row r="31" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="31" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="115">
         <v>24</v>
       </c>
@@ -34820,11 +34827,11 @@
         <v>695</v>
       </c>
       <c r="AM31" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN31" s="83"/>
     </row>
-    <row r="32" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="32" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="115">
         <v>25</v>
       </c>
@@ -34949,11 +34956,11 @@
         <v>669</v>
       </c>
       <c r="AM32" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN32" s="83"/>
     </row>
-    <row r="33" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="33" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="115">
         <v>26</v>
       </c>
@@ -34964,7 +34971,7 @@
         <v>190000100223</v>
       </c>
       <c r="D33" s="118" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E33" s="118" t="s">
         <v>359</v>
@@ -35078,11 +35085,11 @@
         <v>621</v>
       </c>
       <c r="AM33" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN33" s="121"/>
     </row>
-    <row r="34" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="34" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="115">
         <v>27</v>
       </c>
@@ -35207,11 +35214,11 @@
         <v>595</v>
       </c>
       <c r="AM34" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN34" s="83"/>
     </row>
-    <row r="35" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="35" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="115">
         <v>28</v>
       </c>
@@ -35336,11 +35343,11 @@
         <v>649</v>
       </c>
       <c r="AM35" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN35" s="83"/>
     </row>
-    <row r="36" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="36" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="115">
         <v>29</v>
       </c>
@@ -35465,11 +35472,11 @@
         <v>599</v>
       </c>
       <c r="AM36" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN36" s="121"/>
     </row>
-    <row r="37" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="37" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="115">
         <v>30</v>
       </c>
@@ -35594,11 +35601,11 @@
         <v>688</v>
       </c>
       <c r="AM37" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN37" s="83"/>
     </row>
-    <row r="38" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="38" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="115">
         <v>31</v>
       </c>
@@ -35676,7 +35683,7 @@
         <v>86</v>
       </c>
       <c r="Y38" s="152" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Z38" s="152">
         <v>13</v>
@@ -35686,7 +35693,7 @@
         <v>13</v>
       </c>
       <c r="AB38" s="154" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AC38" s="154">
         <v>15</v>
@@ -35723,14 +35730,14 @@
         <v>503</v>
       </c>
       <c r="AM38" s="131" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN38" s="52" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AO38" s="30"/>
     </row>
-    <row r="39" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="39" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="115">
         <v>32</v>
       </c>
@@ -35855,11 +35862,11 @@
         <v>659</v>
       </c>
       <c r="AM39" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN39" s="83"/>
     </row>
-    <row r="40" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="40" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="115">
         <v>33</v>
       </c>
@@ -35984,11 +35991,11 @@
         <v>691</v>
       </c>
       <c r="AM40" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN40" s="83"/>
     </row>
-    <row r="41" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="41" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="115">
         <v>34</v>
       </c>
@@ -36113,11 +36120,11 @@
         <v>610</v>
       </c>
       <c r="AM41" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN41" s="83"/>
     </row>
-    <row r="42" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="42" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="115">
         <v>35</v>
       </c>
@@ -36185,7 +36192,7 @@
         <v>65</v>
       </c>
       <c r="V42" s="154" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W42" s="154">
         <v>39</v>
@@ -36242,13 +36249,13 @@
         <v>455</v>
       </c>
       <c r="AM42" s="131" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN42" s="83" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="43" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="115">
         <v>36</v>
       </c>
@@ -36373,11 +36380,11 @@
         <v>669</v>
       </c>
       <c r="AM43" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN43" s="83"/>
     </row>
-    <row r="44" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="44" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="115">
         <v>37</v>
       </c>
@@ -36391,7 +36398,7 @@
         <v>380</v>
       </c>
       <c r="E44" s="118" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F44" s="86"/>
       <c r="G44" s="152">
@@ -36502,11 +36509,11 @@
         <v>689</v>
       </c>
       <c r="AM44" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN44" s="83"/>
     </row>
-    <row r="45" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="45" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="115">
         <v>38</v>
       </c>
@@ -36631,11 +36638,11 @@
         <v>734</v>
       </c>
       <c r="AM45" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN45" s="83"/>
     </row>
-    <row r="46" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="46" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="115">
         <v>39</v>
       </c>
@@ -36760,11 +36767,11 @@
         <v>685</v>
       </c>
       <c r="AM46" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN46" s="83"/>
     </row>
-    <row r="47" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="47" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="115">
         <v>40</v>
       </c>
@@ -36889,11 +36896,11 @@
         <v>741</v>
       </c>
       <c r="AM47" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN47" s="83"/>
     </row>
-    <row r="48" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="48" spans="1:41" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="115">
         <v>41</v>
       </c>
@@ -37018,12 +37025,12 @@
         <v>610</v>
       </c>
       <c r="AM48" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN48" s="52"/>
       <c r="AO48" s="30"/>
     </row>
-    <row r="49" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="49" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="115">
         <v>42</v>
       </c>
@@ -37148,11 +37155,11 @@
         <v>628</v>
       </c>
       <c r="AM49" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN49" s="83"/>
     </row>
-    <row r="50" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="50" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="115">
         <v>43</v>
       </c>
@@ -37277,11 +37284,11 @@
         <v>621</v>
       </c>
       <c r="AM50" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN50" s="83"/>
     </row>
-    <row r="51" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="51" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="115">
         <v>44</v>
       </c>
@@ -37406,11 +37413,11 @@
         <v>716</v>
       </c>
       <c r="AM51" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN51" s="83"/>
     </row>
-    <row r="52" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="52" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="115">
         <v>45</v>
       </c>
@@ -37535,11 +37542,11 @@
         <v>618</v>
       </c>
       <c r="AM52" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN52" s="83"/>
     </row>
-    <row r="53" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="53" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="115">
         <v>46</v>
       </c>
@@ -37664,11 +37671,11 @@
         <v>644</v>
       </c>
       <c r="AM53" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN53" s="83"/>
     </row>
-    <row r="54" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="54" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="115">
         <v>47</v>
       </c>
@@ -37793,11 +37800,11 @@
         <v>630</v>
       </c>
       <c r="AM54" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN54" s="83"/>
     </row>
-    <row r="55" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="55" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="115">
         <v>48</v>
       </c>
@@ -37922,11 +37929,11 @@
         <v>640</v>
       </c>
       <c r="AM55" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN55" s="121"/>
     </row>
-    <row r="56" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="115">
         <v>49</v>
       </c>
@@ -38051,11 +38058,11 @@
         <v>638</v>
       </c>
       <c r="AM56" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN56" s="83"/>
     </row>
-    <row r="57" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="57" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="115">
         <v>50</v>
       </c>
@@ -38180,11 +38187,11 @@
         <v>673</v>
       </c>
       <c r="AM57" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN57" s="121"/>
     </row>
-    <row r="58" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="58" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="115">
         <v>51</v>
       </c>
@@ -38309,11 +38316,11 @@
         <v>626</v>
       </c>
       <c r="AM58" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN58" s="83"/>
     </row>
-    <row r="59" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="59" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="115">
         <v>52</v>
       </c>
@@ -38438,11 +38445,11 @@
         <v>618</v>
       </c>
       <c r="AM59" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN59" s="121"/>
     </row>
-    <row r="60" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="60" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="115">
         <v>53</v>
       </c>
@@ -38567,11 +38574,11 @@
         <v>667</v>
       </c>
       <c r="AM60" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN60" s="83"/>
     </row>
-    <row r="61" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="61" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="115">
         <v>54</v>
       </c>
@@ -38696,11 +38703,11 @@
         <v>625</v>
       </c>
       <c r="AM61" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN61" s="83"/>
     </row>
-    <row r="62" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="62" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="115">
         <v>55</v>
       </c>
@@ -38711,10 +38718,10 @@
         <v>700090100068</v>
       </c>
       <c r="D62" s="124" t="s">
+        <v>618</v>
+      </c>
+      <c r="E62" s="124" t="s">
         <v>619</v>
-      </c>
-      <c r="E62" s="124" t="s">
-        <v>620</v>
       </c>
       <c r="F62" s="123"/>
       <c r="G62" s="152">
@@ -38825,11 +38832,11 @@
         <v>639</v>
       </c>
       <c r="AM62" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN62" s="121"/>
     </row>
-    <row r="63" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="63" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="115">
         <v>56</v>
       </c>
@@ -38840,10 +38847,10 @@
         <v>700090100069</v>
       </c>
       <c r="D63" s="124" t="s">
+        <v>620</v>
+      </c>
+      <c r="E63" s="124" t="s">
         <v>621</v>
-      </c>
-      <c r="E63" s="124" t="s">
-        <v>622</v>
       </c>
       <c r="F63" s="123"/>
       <c r="G63" s="152">
@@ -38954,11 +38961,11 @@
         <v>764</v>
       </c>
       <c r="AM63" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN63" s="83"/>
     </row>
-    <row r="64" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="64" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="115">
         <v>57</v>
       </c>
@@ -38969,10 +38976,10 @@
         <v>700090100070</v>
       </c>
       <c r="D64" s="124" t="s">
+        <v>622</v>
+      </c>
+      <c r="E64" s="124" t="s">
         <v>623</v>
-      </c>
-      <c r="E64" s="124" t="s">
-        <v>624</v>
       </c>
       <c r="F64" s="123"/>
       <c r="G64" s="152">
@@ -39083,11 +39090,11 @@
         <v>777</v>
       </c>
       <c r="AM64" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN64" s="83"/>
     </row>
-    <row r="65" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="65" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="115">
         <v>58</v>
       </c>
@@ -39098,10 +39105,10 @@
         <v>700090100071</v>
       </c>
       <c r="D65" s="124" t="s">
+        <v>624</v>
+      </c>
+      <c r="E65" s="124" t="s">
         <v>625</v>
-      </c>
-      <c r="E65" s="124" t="s">
-        <v>626</v>
       </c>
       <c r="F65" s="123"/>
       <c r="G65" s="152">
@@ -39212,11 +39219,11 @@
         <v>673</v>
       </c>
       <c r="AM65" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN65" s="83"/>
     </row>
-    <row r="66" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="66" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="115">
         <v>59</v>
       </c>
@@ -39230,7 +39237,7 @@
         <v>74</v>
       </c>
       <c r="E66" s="124" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F66" s="96"/>
       <c r="G66" s="152">
@@ -39341,11 +39348,11 @@
         <v>710</v>
       </c>
       <c r="AM66" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN66" s="83"/>
     </row>
-    <row r="67" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="67" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="115">
         <v>60</v>
       </c>
@@ -39356,10 +39363,10 @@
         <v>700090100073</v>
       </c>
       <c r="D67" s="124" t="s">
+        <v>627</v>
+      </c>
+      <c r="E67" s="124" t="s">
         <v>628</v>
-      </c>
-      <c r="E67" s="124" t="s">
-        <v>629</v>
       </c>
       <c r="F67" s="125"/>
       <c r="G67" s="173">
@@ -39470,11 +39477,11 @@
         <v>652</v>
       </c>
       <c r="AM67" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN67" s="121"/>
     </row>
-    <row r="68" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="68" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="115">
         <v>61</v>
       </c>
@@ -39485,10 +39492,10 @@
         <v>700090100074</v>
       </c>
       <c r="D68" s="124" t="s">
+        <v>629</v>
+      </c>
+      <c r="E68" s="124" t="s">
         <v>630</v>
-      </c>
-      <c r="E68" s="124" t="s">
-        <v>631</v>
       </c>
       <c r="F68" s="125"/>
       <c r="G68" s="173">
@@ -39599,11 +39606,11 @@
         <v>591</v>
       </c>
       <c r="AM68" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN68" s="121"/>
     </row>
-    <row r="69" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="69" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="115">
         <v>62</v>
       </c>
@@ -39614,10 +39621,10 @@
         <v>700090100075</v>
       </c>
       <c r="D69" s="124" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E69" s="124" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F69" s="125"/>
       <c r="G69" s="173">
@@ -39728,11 +39735,11 @@
         <v>675</v>
       </c>
       <c r="AM69" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN69" s="121"/>
     </row>
-    <row r="70" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="70" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="115">
         <v>63</v>
       </c>
@@ -39743,10 +39750,10 @@
         <v>700090100076</v>
       </c>
       <c r="D70" s="124" t="s">
+        <v>632</v>
+      </c>
+      <c r="E70" s="124" t="s">
         <v>633</v>
-      </c>
-      <c r="E70" s="124" t="s">
-        <v>634</v>
       </c>
       <c r="F70" s="125"/>
       <c r="G70" s="173">
@@ -39857,11 +39864,11 @@
         <v>627</v>
       </c>
       <c r="AM70" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN70" s="83"/>
     </row>
-    <row r="71" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="71" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="115">
         <v>64</v>
       </c>
@@ -39872,10 +39879,10 @@
         <v>700090100077</v>
       </c>
       <c r="D71" s="124" t="s">
+        <v>634</v>
+      </c>
+      <c r="E71" s="124" t="s">
         <v>635</v>
-      </c>
-      <c r="E71" s="124" t="s">
-        <v>636</v>
       </c>
       <c r="F71" s="125"/>
       <c r="G71" s="173">
@@ -39986,11 +39993,11 @@
         <v>671</v>
       </c>
       <c r="AM71" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN71" s="121"/>
     </row>
-    <row r="72" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="72" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="115">
         <v>65</v>
       </c>
@@ -40001,10 +40008,10 @@
         <v>700090100078</v>
       </c>
       <c r="D72" s="124" t="s">
+        <v>636</v>
+      </c>
+      <c r="E72" s="124" t="s">
         <v>637</v>
-      </c>
-      <c r="E72" s="124" t="s">
-        <v>638</v>
       </c>
       <c r="F72" s="125"/>
       <c r="G72" s="173">
@@ -40115,11 +40122,11 @@
         <v>675</v>
       </c>
       <c r="AM72" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN72" s="121"/>
     </row>
-    <row r="73" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="73" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="115">
         <v>66</v>
       </c>
@@ -40130,10 +40137,10 @@
         <v>700090100079</v>
       </c>
       <c r="D73" s="124" t="s">
+        <v>638</v>
+      </c>
+      <c r="E73" s="124" t="s">
         <v>639</v>
-      </c>
-      <c r="E73" s="124" t="s">
-        <v>640</v>
       </c>
       <c r="F73" s="125"/>
       <c r="G73" s="173">
@@ -40187,7 +40194,7 @@
         <v>74</v>
       </c>
       <c r="V73" s="154" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W73" s="154">
         <v>51</v>
@@ -40244,13 +40251,13 @@
         <v>577</v>
       </c>
       <c r="AM73" s="131" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN73" s="83" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
-    <row r="74" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="74" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="115">
         <v>67</v>
       </c>
@@ -40261,10 +40268,10 @@
         <v>700090100080</v>
       </c>
       <c r="D74" s="124" t="s">
+        <v>640</v>
+      </c>
+      <c r="E74" s="124" t="s">
         <v>641</v>
-      </c>
-      <c r="E74" s="124" t="s">
-        <v>642</v>
       </c>
       <c r="F74" s="125"/>
       <c r="G74" s="173">
@@ -40375,11 +40382,11 @@
         <v>744</v>
       </c>
       <c r="AM74" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN74" s="121"/>
     </row>
-    <row r="75" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="75" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="115">
         <v>68</v>
       </c>
@@ -40390,10 +40397,10 @@
         <v>700090100081</v>
       </c>
       <c r="D75" s="124" t="s">
+        <v>642</v>
+      </c>
+      <c r="E75" s="124" t="s">
         <v>643</v>
-      </c>
-      <c r="E75" s="124" t="s">
-        <v>644</v>
       </c>
       <c r="F75" s="125"/>
       <c r="G75" s="173">
@@ -40504,11 +40511,11 @@
         <v>678</v>
       </c>
       <c r="AM75" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN75" s="83"/>
     </row>
-    <row r="76" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="76" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="115">
         <v>69</v>
       </c>
@@ -40519,10 +40526,10 @@
         <v>700090100083</v>
       </c>
       <c r="D76" s="112" t="s">
+        <v>644</v>
+      </c>
+      <c r="E76" s="112" t="s">
         <v>645</v>
-      </c>
-      <c r="E76" s="112" t="s">
-        <v>646</v>
       </c>
       <c r="F76" s="125"/>
       <c r="G76" s="173">
@@ -40633,11 +40640,11 @@
         <v>669</v>
       </c>
       <c r="AM76" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN76" s="125"/>
     </row>
-    <row r="77" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1">
+    <row r="77" spans="1:40" s="117" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="115">
         <v>70</v>
       </c>
@@ -40648,10 +40655,10 @@
         <v>700090100084</v>
       </c>
       <c r="D77" s="112" t="s">
+        <v>646</v>
+      </c>
+      <c r="E77" s="112" t="s">
         <v>647</v>
-      </c>
-      <c r="E77" s="112" t="s">
-        <v>648</v>
       </c>
       <c r="F77" s="125"/>
       <c r="G77" s="173">
@@ -40762,12 +40769,15 @@
         <v>698</v>
       </c>
       <c r="AM77" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AN77" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="A2:AN2"/>
+    <mergeCell ref="A3:AN3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="C4:C7"/>
@@ -40783,37 +40793,34 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="A2:AN2"/>
-    <mergeCell ref="A3:AN3"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G77 M8:M77 P8:P77">
-    <cfRule type="cellIs" dxfId="5" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I77 O8:O77 R8:R77 X8:X77">
-    <cfRule type="cellIs" dxfId="4" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S77 V8:V77 J8:J77">
-    <cfRule type="cellIs" dxfId="3" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L77 U8:U77 X8:X77">
-    <cfRule type="cellIs" dxfId="2" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y77 AB8:AB77 AH8:AH77">
-    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA77 AD8:AD77 AJ8:AJ77">
-    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40826,14 +40833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="3" width="28.33203125" customWidth="1"/>
@@ -40848,133 +40855,133 @@
     <col min="38" max="38" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="69.75" customHeight="1">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:38" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="210"/>
-      <c r="AJ1" s="210"/>
-      <c r="AK1" s="210"/>
-      <c r="AL1" s="210"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="198"/>
     </row>
-    <row r="2" spans="1:38" ht="69.75" customHeight="1">
-      <c r="A2" s="210" t="s">
+    <row r="2" spans="1:38" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="210"/>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="210"/>
-      <c r="AJ2" s="210"/>
-      <c r="AK2" s="210"/>
-      <c r="AL2" s="210"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
     </row>
-    <row r="3" spans="1:38" ht="69.75" customHeight="1">
-      <c r="A3" s="211" t="s">
-        <v>656</v>
-      </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="211"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="211"/>
-      <c r="AL3" s="211"/>
+    <row r="3" spans="1:38" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="199" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="199"/>
+      <c r="AK3" s="199"/>
+      <c r="AL3" s="199"/>
     </row>
-    <row r="4" spans="1:38" ht="23.25" hidden="1" customHeight="1">
+    <row r="4" spans="1:38" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="231"/>
       <c r="B4" s="231"/>
       <c r="C4" s="231"/>
@@ -41014,75 +41021,75 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="152.25" customHeight="1">
-      <c r="A5" s="230" t="s">
+    <row r="5" spans="1:38" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="230" t="s">
+      <c r="C5" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="228" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="228" t="s">
+      <c r="E5" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="228" t="s">
+      <c r="F5" s="229" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="209" t="s">
+      <c r="H5" s="197" t="s">
+        <v>674</v>
+      </c>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197" t="s">
         <v>675</v>
       </c>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209" t="s">
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197" t="s">
         <v>676</v>
       </c>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209" t="s">
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197" t="s">
         <v>677</v>
       </c>
-      <c r="O5" s="209"/>
-      <c r="P5" s="209"/>
-      <c r="Q5" s="209" t="s">
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197" t="s">
         <v>678</v>
       </c>
-      <c r="R5" s="209"/>
-      <c r="S5" s="209"/>
-      <c r="T5" s="209" t="s">
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197" t="s">
+        <v>734</v>
+      </c>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197" t="s">
         <v>679</v>
       </c>
-      <c r="U5" s="209"/>
-      <c r="V5" s="209"/>
-      <c r="W5" s="209" t="s">
-        <v>735</v>
-      </c>
-      <c r="X5" s="209"/>
-      <c r="Y5" s="209"/>
-      <c r="Z5" s="209" t="s">
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197" t="s">
         <v>680</v>
       </c>
-      <c r="AA5" s="209"/>
-      <c r="AB5" s="209"/>
-      <c r="AC5" s="209" t="s">
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197" t="s">
         <v>681</v>
       </c>
-      <c r="AD5" s="209"/>
-      <c r="AE5" s="209"/>
-      <c r="AF5" s="209" t="s">
-        <v>682</v>
-      </c>
-      <c r="AG5" s="209"/>
-      <c r="AH5" s="209"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
       <c r="AI5" s="56" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AJ5" s="44" t="s">
         <v>12</v>
@@ -41094,13 +41101,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="63" customHeight="1">
-      <c r="A6" s="230"/>
-      <c r="B6" s="230"/>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
+    <row r="6" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="228"/>
+      <c r="B6" s="228"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
       <c r="G6" s="5"/>
       <c r="H6" s="11" t="s">
         <v>7</v>
@@ -41188,13 +41195,13 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="38"/>
     </row>
-    <row r="7" spans="1:38" ht="63" customHeight="1">
-      <c r="A7" s="230"/>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
+    <row r="7" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="228"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="67" t="s">
         <v>2</v>
       </c>
@@ -41297,13 +41304,13 @@
       <c r="AK7" s="7"/>
       <c r="AL7" s="39"/>
     </row>
-    <row r="8" spans="1:38" ht="63" customHeight="1">
-      <c r="A8" s="203"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
+    <row r="8" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="209"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="69" t="s">
         <v>3</v>
       </c>
@@ -41377,7 +41384,7 @@
       <c r="AK8" s="10"/>
       <c r="AL8" s="88"/>
     </row>
-    <row r="9" spans="1:38" s="53" customFormat="1" ht="84" customHeight="1">
+    <row r="9" spans="1:38" s="53" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64">
         <v>1</v>
       </c>
@@ -41495,11 +41502,11 @@
         <v>679</v>
       </c>
       <c r="AK9" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL9" s="83"/>
     </row>
-    <row r="10" spans="1:38" ht="84" customHeight="1">
+    <row r="10" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>2</v>
       </c>
@@ -41617,11 +41624,11 @@
         <v>726</v>
       </c>
       <c r="AK10" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL10" s="133"/>
     </row>
-    <row r="11" spans="1:38" ht="84" customHeight="1">
+    <row r="11" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>3</v>
       </c>
@@ -41739,11 +41746,11 @@
         <v>572</v>
       </c>
       <c r="AK11" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL11" s="133"/>
     </row>
-    <row r="12" spans="1:38" ht="84" customHeight="1">
+    <row r="12" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>4</v>
       </c>
@@ -41861,11 +41868,11 @@
         <v>563</v>
       </c>
       <c r="AK12" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL12" s="133"/>
     </row>
-    <row r="13" spans="1:38" ht="84" customHeight="1">
+    <row r="13" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>5</v>
       </c>
@@ -41983,11 +41990,11 @@
         <v>696</v>
       </c>
       <c r="AK13" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL13" s="133"/>
     </row>
-    <row r="14" spans="1:38" ht="84" customHeight="1">
+    <row r="14" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>6</v>
       </c>
@@ -42105,11 +42112,11 @@
         <v>705</v>
       </c>
       <c r="AK14" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL14" s="133"/>
     </row>
-    <row r="15" spans="1:38" ht="84" customHeight="1">
+    <row r="15" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>7</v>
       </c>
@@ -42227,11 +42234,11 @@
         <v>762</v>
       </c>
       <c r="AK15" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL15" s="133"/>
     </row>
-    <row r="16" spans="1:38" ht="84" customHeight="1">
+    <row r="16" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>8</v>
       </c>
@@ -42349,11 +42356,11 @@
         <v>811</v>
       </c>
       <c r="AK16" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL16" s="133"/>
     </row>
-    <row r="17" spans="1:38" ht="84" customHeight="1">
+    <row r="17" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>9</v>
       </c>
@@ -42471,11 +42478,11 @@
         <v>735</v>
       </c>
       <c r="AK17" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL17" s="133"/>
     </row>
-    <row r="18" spans="1:38" ht="84" customHeight="1">
+    <row r="18" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>10</v>
       </c>
@@ -42593,11 +42600,11 @@
         <v>727</v>
       </c>
       <c r="AK18" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL18" s="133"/>
     </row>
-    <row r="19" spans="1:38" ht="84" customHeight="1">
+    <row r="19" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
         <v>11</v>
       </c>
@@ -42715,11 +42722,11 @@
         <v>757</v>
       </c>
       <c r="AK19" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL19" s="133"/>
     </row>
-    <row r="20" spans="1:38" ht="84" customHeight="1">
+    <row r="20" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>12</v>
       </c>
@@ -42837,11 +42844,11 @@
         <v>668</v>
       </c>
       <c r="AK20" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL20" s="133"/>
     </row>
-    <row r="21" spans="1:38" ht="84" customHeight="1">
+    <row r="21" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
         <v>13</v>
       </c>
@@ -42959,11 +42966,11 @@
         <v>694</v>
       </c>
       <c r="AK21" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL21" s="133"/>
     </row>
-    <row r="22" spans="1:38" ht="84" customHeight="1">
+    <row r="22" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>14</v>
       </c>
@@ -43081,11 +43088,11 @@
         <v>702</v>
       </c>
       <c r="AK22" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL22" s="133"/>
     </row>
-    <row r="23" spans="1:38" ht="84" customHeight="1">
+    <row r="23" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>15</v>
       </c>
@@ -43203,11 +43210,11 @@
         <v>763</v>
       </c>
       <c r="AK23" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL23" s="133"/>
     </row>
-    <row r="24" spans="1:38" ht="84" customHeight="1">
+    <row r="24" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>16</v>
       </c>
@@ -43325,11 +43332,11 @@
         <v>757</v>
       </c>
       <c r="AK24" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL24" s="133"/>
     </row>
-    <row r="25" spans="1:38" ht="84" customHeight="1">
+    <row r="25" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>17</v>
       </c>
@@ -43447,11 +43454,11 @@
         <v>605</v>
       </c>
       <c r="AK25" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL25" s="133"/>
     </row>
-    <row r="26" spans="1:38" ht="84" customHeight="1">
+    <row r="26" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>18</v>
       </c>
@@ -43569,11 +43576,11 @@
         <v>766</v>
       </c>
       <c r="AK26" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL26" s="133"/>
     </row>
-    <row r="27" spans="1:38" ht="84" customHeight="1">
+    <row r="27" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>19</v>
       </c>
@@ -43691,11 +43698,11 @@
         <v>708</v>
       </c>
       <c r="AK27" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL27" s="133"/>
     </row>
-    <row r="28" spans="1:38" ht="84" customHeight="1">
+    <row r="28" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>20</v>
       </c>
@@ -43813,11 +43820,11 @@
         <v>785</v>
       </c>
       <c r="AK28" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL28" s="133"/>
     </row>
-    <row r="29" spans="1:38" ht="84" customHeight="1">
+    <row r="29" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>21</v>
       </c>
@@ -43935,11 +43942,11 @@
         <v>715</v>
       </c>
       <c r="AK29" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL29" s="133"/>
     </row>
-    <row r="30" spans="1:38" ht="84" customHeight="1">
+    <row r="30" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>22</v>
       </c>
@@ -44057,11 +44064,11 @@
         <v>743</v>
       </c>
       <c r="AK30" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL30" s="133"/>
     </row>
-    <row r="31" spans="1:38" ht="84" customHeight="1">
+    <row r="31" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>23</v>
       </c>
@@ -44179,11 +44186,11 @@
         <v>660</v>
       </c>
       <c r="AK31" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL31" s="133"/>
     </row>
-    <row r="32" spans="1:38" ht="84" customHeight="1">
+    <row r="32" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>24</v>
       </c>
@@ -44301,11 +44308,11 @@
         <v>643</v>
       </c>
       <c r="AK32" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL32" s="133"/>
     </row>
-    <row r="33" spans="1:38" ht="84" customHeight="1">
+    <row r="33" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>25</v>
       </c>
@@ -44423,11 +44430,11 @@
         <v>783</v>
       </c>
       <c r="AK33" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL33" s="133"/>
     </row>
-    <row r="34" spans="1:38" ht="84" customHeight="1">
+    <row r="34" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>26</v>
       </c>
@@ -44545,11 +44552,11 @@
         <v>823</v>
       </c>
       <c r="AK34" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL34" s="133"/>
     </row>
-    <row r="35" spans="1:38" ht="84" customHeight="1">
+    <row r="35" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>27</v>
       </c>
@@ -44667,11 +44674,11 @@
         <v>648</v>
       </c>
       <c r="AK35" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL35" s="133"/>
     </row>
-    <row r="36" spans="1:38" ht="84" customHeight="1">
+    <row r="36" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>28</v>
       </c>
@@ -44789,11 +44796,11 @@
         <v>604</v>
       </c>
       <c r="AK36" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL36" s="133"/>
     </row>
-    <row r="37" spans="1:38" ht="84" customHeight="1">
+    <row r="37" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>29</v>
       </c>
@@ -44911,11 +44918,11 @@
         <v>654</v>
       </c>
       <c r="AK37" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL37" s="133"/>
     </row>
-    <row r="38" spans="1:38" ht="84" customHeight="1">
+    <row r="38" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>30</v>
       </c>
@@ -45033,11 +45040,11 @@
         <v>728</v>
       </c>
       <c r="AK38" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL38" s="133"/>
     </row>
-    <row r="39" spans="1:38" ht="84" customHeight="1">
+    <row r="39" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>31</v>
       </c>
@@ -45108,7 +45115,7 @@
         <v>79</v>
       </c>
       <c r="W39" s="139" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X39" s="139">
         <v>50</v>
@@ -45155,13 +45162,13 @@
         <v>672</v>
       </c>
       <c r="AK39" s="132" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AL39" s="133" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="84" customHeight="1">
+    <row r="40" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>32</v>
       </c>
@@ -45232,7 +45239,7 @@
         <v>91</v>
       </c>
       <c r="W40" s="139" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X40" s="139">
         <v>44</v>
@@ -45279,13 +45286,13 @@
         <v>588</v>
       </c>
       <c r="AK40" s="132" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AL40" s="133" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="84" customHeight="1">
+    <row r="41" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>33</v>
       </c>
@@ -45403,11 +45410,11 @@
         <v>761</v>
       </c>
       <c r="AK41" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL41" s="133"/>
     </row>
-    <row r="42" spans="1:38" ht="84" customHeight="1">
+    <row r="42" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>34</v>
       </c>
@@ -45525,11 +45532,11 @@
         <v>699</v>
       </c>
       <c r="AK42" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL42" s="133"/>
     </row>
-    <row r="43" spans="1:38" ht="84" customHeight="1">
+    <row r="43" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>35</v>
       </c>
@@ -45647,11 +45654,11 @@
         <v>680</v>
       </c>
       <c r="AK43" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL43" s="133"/>
     </row>
-    <row r="44" spans="1:38" ht="84" customHeight="1">
+    <row r="44" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>36</v>
       </c>
@@ -45769,11 +45776,11 @@
         <v>664</v>
       </c>
       <c r="AK44" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL44" s="133"/>
     </row>
-    <row r="45" spans="1:38" ht="84" customHeight="1">
+    <row r="45" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>37</v>
       </c>
@@ -45891,11 +45898,11 @@
         <v>704</v>
       </c>
       <c r="AK45" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL45" s="133"/>
     </row>
-    <row r="46" spans="1:38" ht="84" customHeight="1">
+    <row r="46" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>38</v>
       </c>
@@ -46013,11 +46020,11 @@
         <v>820</v>
       </c>
       <c r="AK46" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL46" s="133"/>
     </row>
-    <row r="47" spans="1:38" ht="84" customHeight="1">
+    <row r="47" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>39</v>
       </c>
@@ -46135,11 +46142,11 @@
         <v>699</v>
       </c>
       <c r="AK47" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL47" s="133"/>
     </row>
-    <row r="48" spans="1:38" ht="84" customHeight="1">
+    <row r="48" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>40</v>
       </c>
@@ -46257,11 +46264,11 @@
         <v>700</v>
       </c>
       <c r="AK48" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL48" s="133"/>
     </row>
-    <row r="49" spans="1:38" ht="84" customHeight="1">
+    <row r="49" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>41</v>
       </c>
@@ -46379,11 +46386,11 @@
         <v>703</v>
       </c>
       <c r="AK49" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL49" s="133"/>
     </row>
-    <row r="50" spans="1:38" ht="84" customHeight="1">
+    <row r="50" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>42</v>
       </c>
@@ -46501,11 +46508,11 @@
         <v>658</v>
       </c>
       <c r="AK50" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL50" s="133"/>
     </row>
-    <row r="51" spans="1:38" ht="84" customHeight="1">
+    <row r="51" spans="1:38" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>43</v>
       </c>
@@ -46623,12 +46630,16 @@
         <v>581</v>
       </c>
       <c r="AK51" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL51" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A3:AL3"/>
     <mergeCell ref="W5:Y5"/>
@@ -46645,38 +46656,34 @@
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H51 K9:K51 Q9:Q51 T9:T51 N9:N51">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J51 P9:P51 S9:S51 M9:M51 V9:V51">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W51">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9:Y51">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z51 AF9:AF51 AC9:AD51">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9:AB51 AE9:AE51 AH9:AH51">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46690,14 +46697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" customWidth="1"/>
@@ -46712,87 +46719,87 @@
     <col min="35" max="35" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="74.25" customHeight="1">
-      <c r="A1" s="211" t="s">
+    <row r="1" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="211"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
     </row>
-    <row r="2" spans="1:35" ht="74.25" customHeight="1">
-      <c r="A2" s="211" t="s">
+    <row r="2" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="211"/>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="211"/>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="199"/>
     </row>
-    <row r="3" spans="1:35" ht="74.25" customHeight="1">
+    <row r="3" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="235" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B3" s="235"/>
       <c r="C3" s="235"/>
@@ -46829,7 +46836,7 @@
       <c r="AH3" s="235"/>
       <c r="AI3" s="235"/>
     </row>
-    <row r="4" spans="1:35" ht="191.25" customHeight="1">
+    <row r="4" spans="1:35" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="234" t="s">
         <v>1</v>
       </c>
@@ -46851,48 +46858,48 @@
       <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="209" t="s">
-        <v>700</v>
-      </c>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209" t="s">
+      <c r="H4" s="197" t="s">
+        <v>699</v>
+      </c>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197" t="s">
+        <v>683</v>
+      </c>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197" t="s">
         <v>684</v>
       </c>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209" t="s">
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="203" t="s">
         <v>685</v>
       </c>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="197" t="s">
+      <c r="R4" s="204"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="197" t="s">
         <v>686</v>
       </c>
-      <c r="R4" s="198"/>
-      <c r="S4" s="199"/>
-      <c r="T4" s="209" t="s">
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="203" t="s">
         <v>687</v>
       </c>
-      <c r="U4" s="209"/>
-      <c r="V4" s="209"/>
-      <c r="W4" s="197" t="s">
+      <c r="X4" s="204"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="197" t="s">
         <v>688</v>
       </c>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="199"/>
-      <c r="Z4" s="209" t="s">
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197" t="s">
         <v>689</v>
       </c>
-      <c r="AA4" s="209"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="209" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD4" s="209"/>
-      <c r="AE4" s="209"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
       <c r="AF4" s="56" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG4" s="50" t="s">
         <v>11</v>
@@ -46904,7 +46911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="39" customHeight="1">
+    <row r="5" spans="1:35" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="234"/>
       <c r="B5" s="234"/>
       <c r="C5" s="234"/>
@@ -46913,7 +46920,7 @@
       <c r="F5" s="233"/>
       <c r="G5" s="8"/>
       <c r="H5" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I5" s="37" t="s">
         <v>8</v>
@@ -46989,7 +46996,7 @@
       <c r="AH5" s="8"/>
       <c r="AI5" s="34"/>
     </row>
-    <row r="6" spans="1:35" ht="39" customHeight="1">
+    <row r="6" spans="1:35" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="234"/>
       <c r="B6" s="234"/>
       <c r="C6" s="234"/>
@@ -47088,7 +47095,7 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="27"/>
     </row>
-    <row r="7" spans="1:35" ht="39" customHeight="1">
+    <row r="7" spans="1:35" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="234"/>
       <c r="B7" s="234"/>
       <c r="C7" s="234"/>
@@ -47161,7 +47168,7 @@
       <c r="AH7" s="10"/>
       <c r="AI7" s="36"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="8" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>1</v>
       </c>
@@ -47274,11 +47281,11 @@
         <v>906</v>
       </c>
       <c r="AH8" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI8" s="83"/>
     </row>
-    <row r="9" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="9" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>2</v>
       </c>
@@ -47391,11 +47398,11 @@
         <v>903</v>
       </c>
       <c r="AH9" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI9" s="83"/>
     </row>
-    <row r="10" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="10" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>3</v>
       </c>
@@ -47508,11 +47515,11 @@
         <v>770</v>
       </c>
       <c r="AH10" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI10" s="83"/>
     </row>
-    <row r="11" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="11" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>4</v>
       </c>
@@ -47625,11 +47632,11 @@
         <v>842</v>
       </c>
       <c r="AH11" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI11" s="83"/>
     </row>
-    <row r="12" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="12" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>5</v>
       </c>
@@ -47742,11 +47749,11 @@
         <v>886</v>
       </c>
       <c r="AH12" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI12" s="83"/>
     </row>
-    <row r="13" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="13" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>6</v>
       </c>
@@ -47859,11 +47866,11 @@
         <v>876</v>
       </c>
       <c r="AH13" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI13" s="83"/>
     </row>
-    <row r="14" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="14" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>7</v>
       </c>
@@ -47976,11 +47983,11 @@
         <v>921</v>
       </c>
       <c r="AH14" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI14" s="83"/>
     </row>
-    <row r="15" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="15" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>8</v>
       </c>
@@ -48093,11 +48100,11 @@
         <v>885</v>
       </c>
       <c r="AH15" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI15" s="83"/>
     </row>
-    <row r="16" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="16" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>9</v>
       </c>
@@ -48210,11 +48217,11 @@
         <v>841</v>
       </c>
       <c r="AH16" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI16" s="83"/>
     </row>
-    <row r="17" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="17" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>10</v>
       </c>
@@ -48327,11 +48334,11 @@
         <v>775</v>
       </c>
       <c r="AH17" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI17" s="83"/>
     </row>
-    <row r="18" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="18" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>11</v>
       </c>
@@ -48444,11 +48451,11 @@
         <v>877</v>
       </c>
       <c r="AH18" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI18" s="83"/>
     </row>
-    <row r="19" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="19" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>12</v>
       </c>
@@ -48561,11 +48568,11 @@
         <v>884</v>
       </c>
       <c r="AH19" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI19" s="83"/>
     </row>
-    <row r="20" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="20" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <v>13</v>
       </c>
@@ -48678,11 +48685,11 @@
         <v>876</v>
       </c>
       <c r="AH20" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI20" s="83"/>
     </row>
-    <row r="21" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="21" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>14</v>
       </c>
@@ -48795,11 +48802,11 @@
         <v>889</v>
       </c>
       <c r="AH21" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI21" s="83"/>
     </row>
-    <row r="22" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="22" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>15</v>
       </c>
@@ -48912,11 +48919,11 @@
         <v>846</v>
       </c>
       <c r="AH22" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI22" s="83"/>
     </row>
-    <row r="23" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="23" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71">
         <v>16</v>
       </c>
@@ -49029,11 +49036,11 @@
         <v>875</v>
       </c>
       <c r="AH23" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI23" s="83"/>
     </row>
-    <row r="24" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="24" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71">
         <v>17</v>
       </c>
@@ -49146,11 +49153,11 @@
         <v>827</v>
       </c>
       <c r="AH24" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI24" s="83"/>
     </row>
-    <row r="25" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="25" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
         <v>18</v>
       </c>
@@ -49263,11 +49270,11 @@
         <v>801</v>
       </c>
       <c r="AH25" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI25" s="83"/>
     </row>
-    <row r="26" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="26" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
         <v>19</v>
       </c>
@@ -49380,11 +49387,11 @@
         <v>846</v>
       </c>
       <c r="AH26" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI26" s="83"/>
     </row>
-    <row r="27" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="27" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71">
         <v>20</v>
       </c>
@@ -49497,11 +49504,11 @@
         <v>860</v>
       </c>
       <c r="AH27" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI27" s="83"/>
     </row>
-    <row r="28" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="28" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
         <v>21</v>
       </c>
@@ -49614,11 +49621,11 @@
         <v>783</v>
       </c>
       <c r="AH28" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI28" s="83"/>
     </row>
-    <row r="29" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="29" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
         <v>22</v>
       </c>
@@ -49731,11 +49738,11 @@
         <v>852</v>
       </c>
       <c r="AH29" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI29" s="83"/>
     </row>
-    <row r="30" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="30" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="71">
         <v>23</v>
       </c>
@@ -49848,11 +49855,11 @@
         <v>927</v>
       </c>
       <c r="AH30" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI30" s="83"/>
     </row>
-    <row r="31" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="31" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71">
         <v>24</v>
       </c>
@@ -49965,11 +49972,11 @@
         <v>818</v>
       </c>
       <c r="AH31" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI31" s="83"/>
     </row>
-    <row r="32" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="32" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="71">
         <v>25</v>
       </c>
@@ -50082,11 +50089,11 @@
         <v>795</v>
       </c>
       <c r="AH32" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI32" s="83"/>
     </row>
-    <row r="33" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="33" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71">
         <v>26</v>
       </c>
@@ -50199,11 +50206,11 @@
         <v>772</v>
       </c>
       <c r="AH33" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI33" s="83"/>
     </row>
-    <row r="34" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="34" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71">
         <v>27</v>
       </c>
@@ -50316,11 +50323,11 @@
         <v>817</v>
       </c>
       <c r="AH34" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI34" s="83"/>
     </row>
-    <row r="35" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="35" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="71">
         <v>28</v>
       </c>
@@ -50433,11 +50440,11 @@
         <v>756</v>
       </c>
       <c r="AH35" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI35" s="83"/>
     </row>
-    <row r="36" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="36" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71">
         <v>29</v>
       </c>
@@ -50550,11 +50557,11 @@
         <v>809</v>
       </c>
       <c r="AH36" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI36" s="83"/>
     </row>
-    <row r="37" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="37" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="71">
         <v>30</v>
       </c>
@@ -50667,11 +50674,11 @@
         <v>763</v>
       </c>
       <c r="AH37" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI37" s="83"/>
     </row>
-    <row r="38" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="38" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71">
         <v>31</v>
       </c>
@@ -50784,11 +50791,11 @@
         <v>765</v>
       </c>
       <c r="AH38" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI38" s="83"/>
     </row>
-    <row r="39" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="39" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="71">
         <v>32</v>
       </c>
@@ -50901,11 +50908,11 @@
         <v>918</v>
       </c>
       <c r="AH39" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI39" s="83"/>
     </row>
-    <row r="40" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="40" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="71">
         <v>33</v>
       </c>
@@ -51018,11 +51025,11 @@
         <v>929</v>
       </c>
       <c r="AH40" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI40" s="83"/>
     </row>
-    <row r="41" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="41" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="71">
         <v>34</v>
       </c>
@@ -51135,11 +51142,11 @@
         <v>913</v>
       </c>
       <c r="AH41" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI41" s="83"/>
     </row>
-    <row r="42" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="42" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="71">
         <v>35</v>
       </c>
@@ -51252,11 +51259,11 @@
         <v>820</v>
       </c>
       <c r="AH42" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI42" s="83"/>
     </row>
-    <row r="43" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="43" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="71">
         <v>36</v>
       </c>
@@ -51369,11 +51376,11 @@
         <v>909</v>
       </c>
       <c r="AH43" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI43" s="83"/>
     </row>
-    <row r="44" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="44" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="71">
         <v>37</v>
       </c>
@@ -51486,11 +51493,11 @@
         <v>940</v>
       </c>
       <c r="AH44" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI44" s="83"/>
     </row>
-    <row r="45" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="45" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="71">
         <v>38</v>
       </c>
@@ -51603,11 +51610,11 @@
         <v>844</v>
       </c>
       <c r="AH45" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI45" s="83"/>
     </row>
-    <row r="46" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="46" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="71">
         <v>39</v>
       </c>
@@ -51720,11 +51727,11 @@
         <v>737</v>
       </c>
       <c r="AH46" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI46" s="83"/>
     </row>
-    <row r="47" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="47" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="71">
         <v>40</v>
       </c>
@@ -51837,11 +51844,11 @@
         <v>780</v>
       </c>
       <c r="AH47" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI47" s="83"/>
     </row>
-    <row r="48" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="48" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="71">
         <v>41</v>
       </c>
@@ -51954,11 +51961,11 @@
         <v>803</v>
       </c>
       <c r="AH48" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI48" s="83"/>
     </row>
-    <row r="49" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="49" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="71">
         <v>42</v>
       </c>
@@ -52071,11 +52078,11 @@
         <v>892</v>
       </c>
       <c r="AH49" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI49" s="83"/>
     </row>
-    <row r="50" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1">
+    <row r="50" spans="1:35" s="47" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="71">
         <v>43</v>
       </c>
@@ -52188,11 +52195,11 @@
         <v>864</v>
       </c>
       <c r="AH50" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI50" s="83"/>
     </row>
-    <row r="51" spans="1:35" ht="72" customHeight="1">
+    <row r="51" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="71">
         <v>44</v>
       </c>
@@ -52305,11 +52312,11 @@
         <v>783</v>
       </c>
       <c r="AH51" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI51" s="83"/>
     </row>
-    <row r="52" spans="1:35" ht="72" customHeight="1">
+    <row r="52" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="71">
         <v>45</v>
       </c>
@@ -52422,11 +52429,11 @@
         <v>777</v>
       </c>
       <c r="AH52" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI52" s="78"/>
     </row>
-    <row r="53" spans="1:35" ht="72" customHeight="1">
+    <row r="53" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="71">
         <v>46</v>
       </c>
@@ -52539,11 +52546,11 @@
         <v>831</v>
       </c>
       <c r="AH53" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI53" s="83"/>
     </row>
-    <row r="54" spans="1:35" ht="72" customHeight="1">
+    <row r="54" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="71">
         <v>47</v>
       </c>
@@ -52656,11 +52663,11 @@
         <v>855</v>
       </c>
       <c r="AH54" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI54" s="83"/>
     </row>
-    <row r="55" spans="1:35" ht="72" customHeight="1">
+    <row r="55" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="71">
         <v>48</v>
       </c>
@@ -52773,11 +52780,11 @@
         <v>818</v>
       </c>
       <c r="AH55" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI55" s="78"/>
     </row>
-    <row r="56" spans="1:35" ht="72" customHeight="1">
+    <row r="56" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="71">
         <v>49</v>
       </c>
@@ -52885,11 +52892,11 @@
         <v>744</v>
       </c>
       <c r="AH56" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI56" s="83"/>
     </row>
-    <row r="57" spans="1:35" ht="72" customHeight="1">
+    <row r="57" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="71">
         <v>50</v>
       </c>
@@ -52997,11 +53004,11 @@
         <v>819</v>
       </c>
       <c r="AH57" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI57" s="83"/>
     </row>
-    <row r="58" spans="1:35" ht="72" customHeight="1">
+    <row r="58" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="71">
         <v>51</v>
       </c>
@@ -53109,11 +53116,11 @@
         <v>772</v>
       </c>
       <c r="AH58" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI58" s="83"/>
     </row>
-    <row r="59" spans="1:35" ht="72" customHeight="1">
+    <row r="59" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="71">
         <v>52</v>
       </c>
@@ -53221,11 +53228,11 @@
         <v>840</v>
       </c>
       <c r="AH59" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI59" s="78"/>
     </row>
-    <row r="60" spans="1:35" ht="72" customHeight="1">
+    <row r="60" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="71">
         <v>53</v>
       </c>
@@ -53333,11 +53340,11 @@
         <v>807</v>
       </c>
       <c r="AH60" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI60" s="78"/>
     </row>
-    <row r="61" spans="1:35" ht="72" customHeight="1">
+    <row r="61" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="71">
         <v>54</v>
       </c>
@@ -53398,7 +53405,7 @@
         <v>148</v>
       </c>
       <c r="T61" s="76" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U61" s="76">
         <v>41</v>
@@ -53445,13 +53452,13 @@
         <v>694</v>
       </c>
       <c r="AH61" s="131" t="s">
+        <v>705</v>
+      </c>
+      <c r="AI61" s="111" t="s">
         <v>706</v>
       </c>
-      <c r="AI61" s="111" t="s">
-        <v>707</v>
-      </c>
     </row>
-    <row r="62" spans="1:35" ht="72" customHeight="1">
+    <row r="62" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="71">
         <v>55</v>
       </c>
@@ -53559,11 +53566,11 @@
         <v>873</v>
       </c>
       <c r="AH62" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI62" s="78"/>
     </row>
-    <row r="63" spans="1:35" ht="72" customHeight="1">
+    <row r="63" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="71">
         <v>56</v>
       </c>
@@ -53671,11 +53678,11 @@
         <v>780</v>
       </c>
       <c r="AH63" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI63" s="78"/>
     </row>
-    <row r="64" spans="1:35" ht="72" customHeight="1">
+    <row r="64" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="71">
         <v>57</v>
       </c>
@@ -53783,11 +53790,11 @@
         <v>821</v>
       </c>
       <c r="AH64" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI64" s="78"/>
     </row>
-    <row r="65" spans="1:35" ht="72" customHeight="1">
+    <row r="65" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="71">
         <v>58</v>
       </c>
@@ -53895,11 +53902,11 @@
         <v>856</v>
       </c>
       <c r="AH65" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI65" s="83"/>
     </row>
-    <row r="66" spans="1:35" ht="72" customHeight="1">
+    <row r="66" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="71">
         <v>59</v>
       </c>
@@ -54007,11 +54014,11 @@
         <v>873</v>
       </c>
       <c r="AH66" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI66" s="78"/>
     </row>
-    <row r="67" spans="1:35" ht="72" customHeight="1">
+    <row r="67" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="71">
         <v>60</v>
       </c>
@@ -54119,11 +54126,11 @@
         <v>784</v>
       </c>
       <c r="AH67" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI67" s="78"/>
     </row>
-    <row r="68" spans="1:35" ht="72" customHeight="1">
+    <row r="68" spans="1:35" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="71">
         <v>61</v>
       </c>
@@ -54231,12 +54238,13 @@
         <v>694</v>
       </c>
       <c r="AH68" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AI68" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="A2:AI2"/>
@@ -54253,50 +54261,49 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <conditionalFormatting sqref="T8:T68">
-    <cfRule type="cellIs" dxfId="14" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V68">
-    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W68 AC8:AC68">
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y68 AE8:AE68">
-    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG68">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>525</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H68 K8:K68 N8:N68 Q8:Q68">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J68 M8:M68 P8:P68 S8:S68">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z68">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB68">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
